--- a/code/eyeTrackingParams.xlsx
+++ b/code/eyeTrackingParams.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aguirre/Documents/MATLAB/projects/eyeTrackTOMEAnalysis/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B18BCA3-072F-8843-BFF2-B6C7008ABFEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB7238D-F6C1-9645-93C0-BF458014F3F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="800" windowWidth="24620" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="2700" yWindow="2400" windowWidth="24620" windowHeight="14480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eyeTrackingParams" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9800" uniqueCount="1267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9802" uniqueCount="1268">
   <si>
     <t>projectSubfolder</t>
   </si>
@@ -3831,16 +3831,19 @@
   </si>
   <si>
     <t>112816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 681, 835, 997, 1131, 1251, 1325, 1496, 1623, 1724 ] </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3886,6 +3889,7 @@
       <sz val="12"/>
       <color rgb="FF24292E"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3914,17 +3918,25 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Courier"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Helv"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3955,7 +3967,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -4009,11 +4021,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 4" xfId="2"/>
+    <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -4353,17 +4366,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AP979"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="AF157" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="AG77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AI160" sqref="AI160"/>
+      <selection pane="bottomRight" activeCell="AJ90" sqref="AJ90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7300,6 +7313,12 @@
       <c r="L90" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="AJ90" s="37" t="s">
+        <v>1267</v>
+      </c>
+      <c r="AK90" s="37" t="s">
+        <v>870</v>
+      </c>
     </row>
     <row r="92" spans="1:42">
       <c r="A92" s="4" t="s">

--- a/code/eyeTrackingParams.xlsx
+++ b/code/eyeTrackingParams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aguirre/Documents/MATLAB/projects/eyeTrackTOMEAnalysis/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB7238D-F6C1-9645-93C0-BF458014F3F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C228BAF8-2DAF-D342-98AA-9B5454C79952}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="2400" windowWidth="24620" windowHeight="14480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="2140" windowWidth="24620" windowHeight="14480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eyeTrackingParams" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9802" uniqueCount="1268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9802" uniqueCount="1269">
   <si>
     <t>projectSubfolder</t>
   </si>
@@ -3834,6 +3834,9 @@
   </si>
   <si>
     <t xml:space="preserve">[ 681, 835, 997, 1131, 1251, 1325, 1496, 1623, 1724 ] </t>
+  </si>
+  <si>
+    <t>[148   244   253   215]</t>
   </si>
 </sst>
 </file>
@@ -4373,10 +4376,10 @@
   <dimension ref="A1:AP979"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="AG77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E276" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AJ90" sqref="AJ90"/>
+      <selection pane="bottomRight" activeCell="E292" sqref="E292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13948,7 +13951,7 @@
         <v>32</v>
       </c>
       <c r="E292" s="4" t="s">
-        <v>795</v>
+        <v>1268</v>
       </c>
       <c r="F292" s="4" t="s">
         <v>629</v>

--- a/code/eyeTrackingParams.xlsx
+++ b/code/eyeTrackingParams.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aguirre/Documents/MATLAB/projects/eyeTrackTOMEAnalysis/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C228BAF8-2DAF-D342-98AA-9B5454C79952}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD05FEF-F2FA-F44D-AB10-9EB8FF1DFCF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="2140" windowWidth="24620" windowHeight="14480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1360" yWindow="920" windowWidth="24620" windowHeight="14480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eyeTrackingParams" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -4376,10 +4376,10 @@
   <dimension ref="A1:AP979"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E276" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="AI894" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E292" sqref="E292"/>
+      <selection pane="bottomRight" activeCell="AL909" sqref="AL909"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -34525,7 +34525,7 @@
         <v>1087</v>
       </c>
       <c r="AM905" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AN905" t="s">
         <v>1059</v>
@@ -34790,8 +34790,8 @@
       <c r="X912" s="5" t="s">
         <v>1087</v>
       </c>
-      <c r="AM912" s="5" t="s">
-        <v>1100</v>
+      <c r="AM912" t="s">
+        <v>1099</v>
       </c>
       <c r="AN912" t="s">
         <v>1059</v>
@@ -34828,8 +34828,8 @@
       <c r="X913" s="5" t="s">
         <v>1087</v>
       </c>
-      <c r="AM913" s="5" t="s">
-        <v>1100</v>
+      <c r="AM913" t="s">
+        <v>1099</v>
       </c>
       <c r="AN913" t="s">
         <v>1059</v>

--- a/code/eyeTrackingParams.xlsx
+++ b/code/eyeTrackingParams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aguirre/Documents/MATLAB/projects/eyeTrackTOMEAnalysis/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FB998B-1D89-5D4E-8BAF-716089CE3809}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7B7AAE-C3BC-204D-9D74-E36491F239BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="920" windowWidth="24620" windowHeight="14480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3818,9 +3818,6 @@
     <t>[136, 558, 2640, 3755, 4894, 5211, 7824. 9464, 11293, 12559, 13220, 14370, 15570, 17328, 19083]</t>
   </si>
   <si>
-    <t>[11, 766, 1586, 3125, 4268, 5459, 6796, 8709, 9790, 105881, 11550, 12781, 14093, 17111, 19348]</t>
-  </si>
-  <si>
     <t>[466, 1180, 1889, 3037, 4004, 5391, 6321, 7584, 8547, 9842, 11124, 12377, 13421, 17097, 19010]</t>
   </si>
   <si>
@@ -3843,6 +3840,9 @@
   </si>
   <si>
     <t>[-0.50; 5.50]</t>
+  </si>
+  <si>
+    <t>[11, 766, 1586, 3125, 4268, 5459, 6796, 8709, 9790, 11550, 12781, 14093, 17111, 19348]</t>
   </si>
 </sst>
 </file>
@@ -4382,10 +4382,10 @@
   <dimension ref="A1:AQ979"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="AI582" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="AI280" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AM592" sqref="AM592"/>
+      <selection pane="bottomRight" activeCell="AJ290" sqref="AJ290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4535,7 +4535,7 @@
         <v>1102</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>272</v>
@@ -7289,7 +7289,7 @@
         <v>100</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="AD89" s="13">
         <v>27.49</v>
@@ -7309,7 +7309,7 @@
         <v>100</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>95</v>
@@ -7327,7 +7327,7 @@
         <v>58</v>
       </c>
       <c r="AJ90" s="37" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="AK90" s="37" t="s">
         <v>870</v>
@@ -13876,7 +13876,7 @@
         <v>805</v>
       </c>
       <c r="AJ290" t="s">
-        <v>1262</v>
+        <v>1270</v>
       </c>
       <c r="AN290" s="5" t="s">
         <v>95</v>
@@ -13938,7 +13938,7 @@
         <v>805</v>
       </c>
       <c r="AJ291" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="AN291" s="5" t="s">
         <v>95</v>
@@ -13961,7 +13961,7 @@
         <v>32</v>
       </c>
       <c r="E292" s="4" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="F292" s="4" t="s">
         <v>629</v>
@@ -14000,7 +14000,7 @@
         <v>805</v>
       </c>
       <c r="AJ292" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="AN292" s="5" t="s">
         <v>95</v>
@@ -23502,7 +23502,7 @@
       </c>
       <c r="AD589" s="15"/>
       <c r="AJ589" s="5" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="AK589" s="5" t="s">
         <v>1049</v>
@@ -23603,7 +23603,7 @@
         <v>1087</v>
       </c>
       <c r="AM591" s="5" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="AN591" t="s">
         <v>1098</v>

--- a/code/eyeTrackingParams.xlsx
+++ b/code/eyeTrackingParams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aguirre/Documents/MATLAB/projects/eyeTrackTOMEAnalysis/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7B7AAE-C3BC-204D-9D74-E36491F239BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F56F07-99AA-B34E-A728-32CE1646AC35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="920" windowWidth="24620" windowHeight="14480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5980" yWindow="2360" windowWidth="21780" windowHeight="14640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eyeTrackingParams" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9804" uniqueCount="1271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9832" uniqueCount="1299">
   <si>
     <t>projectSubfolder</t>
   </si>
@@ -3843,6 +3843,90 @@
   </si>
   <si>
     <t>[11, 766, 1586, 3125, 4268, 5459, 6796, 8709, 9790, 11550, 12781, 14093, 17111, 19348]</t>
+  </si>
+  <si>
+    <t>[-3.83; 1.26]</t>
+  </si>
+  <si>
+    <t>[2.44; -2.81]</t>
+  </si>
+  <si>
+    <t>[2.69; -3.20]</t>
+  </si>
+  <si>
+    <t>[3.33; -2.20]</t>
+  </si>
+  <si>
+    <t>[0.00; -5.97]</t>
+  </si>
+  <si>
+    <t>[4.74; -3.50]</t>
+  </si>
+  <si>
+    <t>[-1.50; 2.02]</t>
+  </si>
+  <si>
+    <t>[0.12; 3.91]</t>
+  </si>
+  <si>
+    <t>[-2.50; -2.21]</t>
+  </si>
+  <si>
+    <t>[-2.50; -2.48]</t>
+  </si>
+  <si>
+    <t>[0.30; 2.13]</t>
+  </si>
+  <si>
+    <t>[0.22; 0.90]</t>
+  </si>
+  <si>
+    <t>[0.05; -2.64]</t>
+  </si>
+  <si>
+    <t>[1.30; 0.50]</t>
+  </si>
+  <si>
+    <t>[0.00; -2.21]</t>
+  </si>
+  <si>
+    <t>[0.00; -2.30]</t>
+  </si>
+  <si>
+    <t>[-1.00; 1.63]</t>
+  </si>
+  <si>
+    <t>[-2.50; 1.57]</t>
+  </si>
+  <si>
+    <t>[-2.00; -0.80]</t>
+  </si>
+  <si>
+    <t>[-1.50; 0.83]</t>
+  </si>
+  <si>
+    <t>[-0.62; 1.15]</t>
+  </si>
+  <si>
+    <t>[0.00; 4.78]</t>
+  </si>
+  <si>
+    <t>[0.40; 4.54]</t>
+  </si>
+  <si>
+    <t>[0.50; 1.02]</t>
+  </si>
+  <si>
+    <t>[1.50; 3.67]</t>
+  </si>
+  <si>
+    <t>[2.00; 6.02]</t>
+  </si>
+  <si>
+    <t>[-1.00; 1.90]</t>
+  </si>
+  <si>
+    <t>[-3.77; 2.33]</t>
   </si>
 </sst>
 </file>
@@ -4382,10 +4466,10 @@
   <dimension ref="A1:AQ979"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="AI280" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="AL888" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AJ290" sqref="AJ290"/>
+      <selection pane="bottomRight" activeCell="AM882" sqref="AM882"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5533,6 +5617,9 @@
       <c r="X32" s="5" t="s">
         <v>738</v>
       </c>
+      <c r="AM32" s="5" t="s">
+        <v>1271</v>
+      </c>
       <c r="AN32" s="5" t="s">
         <v>95</v>
       </c>
@@ -5960,6 +6047,9 @@
       <c r="AJ45" s="5" t="s">
         <v>1243</v>
       </c>
+      <c r="AM45" t="s">
+        <v>1272</v>
+      </c>
       <c r="AN45" s="5" t="s">
         <v>95</v>
       </c>
@@ -6016,6 +6106,9 @@
       <c r="AJ46" s="5" t="s">
         <v>1244</v>
       </c>
+      <c r="AM46" t="s">
+        <v>1273</v>
+      </c>
       <c r="AN46" s="5" t="s">
         <v>95</v>
       </c>
@@ -6913,6 +7006,9 @@
       <c r="X75" s="5" t="s">
         <v>727</v>
       </c>
+      <c r="AM75" t="s">
+        <v>1274</v>
+      </c>
       <c r="AN75" s="5" t="s">
         <v>1105</v>
       </c>
@@ -11186,6 +11282,9 @@
       <c r="X211" s="5" t="s">
         <v>727</v>
       </c>
+      <c r="AM211" s="5" t="s">
+        <v>1275</v>
+      </c>
       <c r="AN211" s="5" t="s">
         <v>95</v>
       </c>
@@ -11732,6 +11831,9 @@
       <c r="X226" s="5" t="s">
         <v>727</v>
       </c>
+      <c r="AM226" s="5" t="s">
+        <v>1276</v>
+      </c>
       <c r="AN226" s="5" t="s">
         <v>95</v>
       </c>
@@ -11922,6 +12024,9 @@
       <c r="X233" s="5" t="s">
         <v>727</v>
       </c>
+      <c r="AM233" s="5" t="s">
+        <v>1277</v>
+      </c>
       <c r="AN233" s="5" t="s">
         <v>95</v>
       </c>
@@ -12080,6 +12185,9 @@
       </c>
       <c r="X236" s="5" t="s">
         <v>728</v>
+      </c>
+      <c r="AM236" t="s">
+        <v>1278</v>
       </c>
       <c r="AN236" s="5" t="s">
         <v>95</v>
@@ -17542,6 +17650,9 @@
       <c r="X402" s="5" t="s">
         <v>1087</v>
       </c>
+      <c r="AM402" t="s">
+        <v>1279</v>
+      </c>
       <c r="AN402" s="5" t="s">
         <v>1098</v>
       </c>
@@ -18285,6 +18396,9 @@
       </c>
       <c r="X425" s="5" t="s">
         <v>1087</v>
+      </c>
+      <c r="AM425" s="5" t="s">
+        <v>1280</v>
       </c>
       <c r="AN425" t="s">
         <v>1101</v>
@@ -19415,6 +19529,9 @@
       <c r="X457" s="5" t="s">
         <v>1087</v>
       </c>
+      <c r="AM457" s="5" t="s">
+        <v>1281</v>
+      </c>
       <c r="AN457" t="s">
         <v>1101</v>
       </c>
@@ -19555,6 +19672,9 @@
       <c r="X461" s="5" t="s">
         <v>1087</v>
       </c>
+      <c r="AM461" s="5" t="s">
+        <v>1282</v>
+      </c>
       <c r="AN461" t="s">
         <v>1101</v>
       </c>
@@ -19660,6 +19780,9 @@
       <c r="X464" s="5" t="s">
         <v>1087</v>
       </c>
+      <c r="AM464" t="s">
+        <v>1283</v>
+      </c>
       <c r="AN464" s="5" t="s">
         <v>1101</v>
       </c>
@@ -19694,6 +19817,9 @@
       </c>
       <c r="X465" s="5" t="s">
         <v>1087</v>
+      </c>
+      <c r="AM465" t="s">
+        <v>1284</v>
       </c>
       <c r="AN465" s="5" t="s">
         <v>1101</v>
@@ -21309,6 +21435,9 @@
       <c r="AA518" s="5">
         <v>400</v>
       </c>
+      <c r="AM518" t="s">
+        <v>1285</v>
+      </c>
       <c r="AN518" t="s">
         <v>1101</v>
       </c>
@@ -21537,6 +21666,9 @@
       </c>
       <c r="X523" s="5" t="s">
         <v>1087</v>
+      </c>
+      <c r="AM523" s="5" t="s">
+        <v>1286</v>
       </c>
       <c r="AN523" s="5" t="s">
         <v>1101</v>
@@ -21828,6 +21960,9 @@
       <c r="X534" s="5" t="s">
         <v>1087</v>
       </c>
+      <c r="AM534" s="5" t="s">
+        <v>1287</v>
+      </c>
       <c r="AN534" t="s">
         <v>1098</v>
       </c>
@@ -21914,6 +22049,9 @@
       </c>
       <c r="X537" s="5" t="s">
         <v>1087</v>
+      </c>
+      <c r="AM537" s="5" t="s">
+        <v>1288</v>
       </c>
       <c r="AN537" s="5" t="s">
         <v>1098</v>
@@ -22752,6 +22890,9 @@
       <c r="X567" s="5" t="s">
         <v>1087</v>
       </c>
+      <c r="AM567" t="s">
+        <v>1289</v>
+      </c>
       <c r="AN567" s="5" t="s">
         <v>1099</v>
       </c>
@@ -22856,6 +22997,9 @@
       </c>
       <c r="X570" s="5" t="s">
         <v>1087</v>
+      </c>
+      <c r="AM570" t="s">
+        <v>1290</v>
       </c>
       <c r="AN570" s="5" t="s">
         <v>1100</v>
@@ -26185,6 +26329,9 @@
       <c r="X659" s="5" t="s">
         <v>1087</v>
       </c>
+      <c r="AM659" t="s">
+        <v>1291</v>
+      </c>
       <c r="AN659" t="s">
         <v>1098</v>
       </c>
@@ -29142,6 +29289,9 @@
         <v>1087</v>
       </c>
       <c r="AD747" s="18"/>
+      <c r="AM747" t="s">
+        <v>1292</v>
+      </c>
       <c r="AN747" t="s">
         <v>1099</v>
       </c>
@@ -29193,6 +29343,9 @@
         <v>1087</v>
       </c>
       <c r="AD748" s="18"/>
+      <c r="AM748" t="s">
+        <v>1293</v>
+      </c>
       <c r="AN748" t="s">
         <v>1099</v>
       </c>
@@ -31951,6 +32104,9 @@
       <c r="X832" s="5" t="s">
         <v>1087</v>
       </c>
+      <c r="AM832" t="s">
+        <v>1294</v>
+      </c>
       <c r="AN832" s="5" t="s">
         <v>1098</v>
       </c>
@@ -32513,6 +32669,9 @@
       <c r="X848" s="5" t="s">
         <v>1087</v>
       </c>
+      <c r="AM848" t="s">
+        <v>1295</v>
+      </c>
       <c r="AN848" s="5" t="s">
         <v>1099</v>
       </c>
@@ -32588,6 +32747,9 @@
       </c>
       <c r="X850" s="5" t="s">
         <v>1087</v>
+      </c>
+      <c r="AM850" t="s">
+        <v>1296</v>
       </c>
       <c r="AN850" s="5" t="s">
         <v>1098</v>
@@ -33463,6 +33625,9 @@
       <c r="X876" s="5" t="s">
         <v>1087</v>
       </c>
+      <c r="AM876" t="s">
+        <v>1297</v>
+      </c>
       <c r="AN876" t="s">
         <v>1099</v>
       </c>
@@ -33652,6 +33817,9 @@
       </c>
       <c r="X881" s="5" t="s">
         <v>1087</v>
+      </c>
+      <c r="AM881" s="5" t="s">
+        <v>1298</v>
       </c>
       <c r="AN881" s="5" t="s">
         <v>1099</v>

--- a/code/eyeTrackingParams.xlsx
+++ b/code/eyeTrackingParams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aguirre/Documents/MATLAB/projects/eyeTrackTOMEAnalysis/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F56F07-99AA-B34E-A728-32CE1646AC35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DA8219-E214-3142-88BE-E0AC012625C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5980" yWindow="2360" windowWidth="21780" windowHeight="14640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1700" yWindow="1160" windowWidth="24420" windowHeight="15060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eyeTrackingParams" sheetId="1" r:id="rId1"/>
@@ -3767,9 +3767,6 @@
     <t>[1984, 8320, 13827, 17217, 17267, 18145]</t>
   </si>
   <si>
-    <t>[78, 158, 815, 1937, 3049, 4259, 5320, 6544, 7756, 9002, 10059, 11295, 12791, 14544, 17520]</t>
-  </si>
-  <si>
     <t>[5, 1004, 2084, 3289, 4608, 6030, 7051, 8119, 9517, 13357, 12656, 13912, 15454, 17830, 19249]</t>
   </si>
   <si>
@@ -3788,9 +3785,6 @@
     <t>[3, 837, 1754, 2823, 4000, 5174, 6190, 7540, 8623, 9707, 11258, 12566, 13628, 14910, 17672]</t>
   </si>
   <si>
-    <t>[4, 736, 1802, 2816, 3982, 5117, 6318, 8073, 9684, 11460, 12636, 13891, 15189, 16955, 18943]</t>
-  </si>
-  <si>
     <t>[5, 675, 1474, 2332, 3271, 4243, 5083, 6022, 7068, 7964, 8784, 9667, 10769, 14769, 17780]</t>
   </si>
   <si>
@@ -3927,6 +3921,12 @@
   </si>
   <si>
     <t>[-3.77; 2.33]</t>
+  </si>
+  <si>
+    <t>[158, 1937, 3049, 6544, 7756, 11295, 17520]</t>
+  </si>
+  <si>
+    <t>[4, 736, 1802, 2816, 5117, 6318, 8073, 9684, 11460, 12636, 13891, 15189, 16955, 18943]</t>
   </si>
 </sst>
 </file>
@@ -4466,10 +4466,10 @@
   <dimension ref="A1:AQ979"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="AL888" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="AI143" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AM882" sqref="AM882"/>
+      <selection pane="bottomRight" activeCell="AJ158" sqref="AJ158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4619,7 +4619,7 @@
         <v>1102</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>272</v>
@@ -5618,7 +5618,7 @@
         <v>738</v>
       </c>
       <c r="AM32" s="5" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="AN32" s="5" t="s">
         <v>95</v>
@@ -6048,7 +6048,7 @@
         <v>1243</v>
       </c>
       <c r="AM45" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="AN45" s="5" t="s">
         <v>95</v>
@@ -6107,7 +6107,7 @@
         <v>1244</v>
       </c>
       <c r="AM46" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="AN46" s="5" t="s">
         <v>95</v>
@@ -7007,7 +7007,7 @@
         <v>727</v>
       </c>
       <c r="AM75" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="AN75" s="5" t="s">
         <v>1105</v>
@@ -7385,7 +7385,7 @@
         <v>100</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="AD89" s="13">
         <v>27.49</v>
@@ -7405,7 +7405,7 @@
         <v>100</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>95</v>
@@ -7423,7 +7423,7 @@
         <v>58</v>
       </c>
       <c r="AJ90" s="37" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="AK90" s="37" t="s">
         <v>870</v>
@@ -8788,7 +8788,7 @@
         <v>727</v>
       </c>
       <c r="AJ137" t="s">
-        <v>1245</v>
+        <v>1297</v>
       </c>
       <c r="AN137" s="5" t="s">
         <v>95</v>
@@ -8844,7 +8844,7 @@
         <v>727</v>
       </c>
       <c r="AJ138" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="AN138" s="5" t="s">
         <v>95</v>
@@ -8900,7 +8900,7 @@
         <v>727</v>
       </c>
       <c r="AJ139" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="AN139" s="5" t="s">
         <v>95</v>
@@ -8956,7 +8956,7 @@
         <v>727</v>
       </c>
       <c r="AJ140" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="AN140" s="5" t="s">
         <v>95</v>
@@ -9402,7 +9402,7 @@
         <v>727</v>
       </c>
       <c r="AJ155" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="AN155" s="5" t="s">
         <v>95</v>
@@ -9452,7 +9452,7 @@
         <v>727</v>
       </c>
       <c r="AJ156" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="AN156" s="5" t="s">
         <v>95</v>
@@ -9502,7 +9502,7 @@
         <v>727</v>
       </c>
       <c r="AJ157" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="AN157" s="5" t="s">
         <v>95</v>
@@ -9552,7 +9552,7 @@
         <v>727</v>
       </c>
       <c r="AJ158" t="s">
-        <v>1252</v>
+        <v>1298</v>
       </c>
       <c r="AN158" s="5" t="s">
         <v>95</v>
@@ -11283,7 +11283,7 @@
         <v>727</v>
       </c>
       <c r="AM211" s="5" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="AN211" s="5" t="s">
         <v>95</v>
@@ -11477,7 +11477,7 @@
         <v>805</v>
       </c>
       <c r="AJ217" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="AN217" s="5" t="s">
         <v>95</v>
@@ -11539,7 +11539,7 @@
         <v>805</v>
       </c>
       <c r="AJ218" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="AN218" s="5" t="s">
         <v>95</v>
@@ -11601,7 +11601,7 @@
         <v>805</v>
       </c>
       <c r="AJ219" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="AN219" s="5" t="s">
         <v>95</v>
@@ -11663,7 +11663,7 @@
         <v>805</v>
       </c>
       <c r="AJ220" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="AN220" s="5" t="s">
         <v>95</v>
@@ -11832,7 +11832,7 @@
         <v>727</v>
       </c>
       <c r="AM226" s="5" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="AN226" s="5" t="s">
         <v>95</v>
@@ -12025,7 +12025,7 @@
         <v>727</v>
       </c>
       <c r="AM233" s="5" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="AN233" s="5" t="s">
         <v>95</v>
@@ -12187,7 +12187,7 @@
         <v>728</v>
       </c>
       <c r="AM236" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="AN236" s="5" t="s">
         <v>95</v>
@@ -12794,7 +12794,7 @@
         <v>727</v>
       </c>
       <c r="AJ256" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="AN256" s="5" t="s">
         <v>1107</v>
@@ -12847,7 +12847,7 @@
         <v>727</v>
       </c>
       <c r="AJ257" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="AN257" s="5" t="s">
         <v>1107</v>
@@ -12900,7 +12900,7 @@
         <v>727</v>
       </c>
       <c r="AJ258" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="AN258" s="5" t="s">
         <v>1107</v>
@@ -12953,7 +12953,7 @@
         <v>727</v>
       </c>
       <c r="AJ259" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="AN259" s="5" t="s">
         <v>1107</v>
@@ -13922,7 +13922,7 @@
         <v>805</v>
       </c>
       <c r="AJ289" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="AN289" s="5" t="s">
         <v>95</v>
@@ -13984,7 +13984,7 @@
         <v>805</v>
       </c>
       <c r="AJ290" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="AN290" s="5" t="s">
         <v>95</v>
@@ -14046,7 +14046,7 @@
         <v>805</v>
       </c>
       <c r="AJ291" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="AN291" s="5" t="s">
         <v>95</v>
@@ -14069,7 +14069,7 @@
         <v>32</v>
       </c>
       <c r="E292" s="4" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="F292" s="4" t="s">
         <v>629</v>
@@ -14108,7 +14108,7 @@
         <v>805</v>
       </c>
       <c r="AJ292" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="AN292" s="5" t="s">
         <v>95</v>
@@ -17651,7 +17651,7 @@
         <v>1087</v>
       </c>
       <c r="AM402" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="AN402" s="5" t="s">
         <v>1098</v>
@@ -18398,7 +18398,7 @@
         <v>1087</v>
       </c>
       <c r="AM425" s="5" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="AN425" t="s">
         <v>1101</v>
@@ -19530,7 +19530,7 @@
         <v>1087</v>
       </c>
       <c r="AM457" s="5" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="AN457" t="s">
         <v>1101</v>
@@ -19673,7 +19673,7 @@
         <v>1087</v>
       </c>
       <c r="AM461" s="5" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="AN461" t="s">
         <v>1101</v>
@@ -19781,7 +19781,7 @@
         <v>1087</v>
       </c>
       <c r="AM464" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="AN464" s="5" t="s">
         <v>1101</v>
@@ -19819,7 +19819,7 @@
         <v>1087</v>
       </c>
       <c r="AM465" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="AN465" s="5" t="s">
         <v>1101</v>
@@ -21436,7 +21436,7 @@
         <v>400</v>
       </c>
       <c r="AM518" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="AN518" t="s">
         <v>1101</v>
@@ -21668,7 +21668,7 @@
         <v>1087</v>
       </c>
       <c r="AM523" s="5" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="AN523" s="5" t="s">
         <v>1101</v>
@@ -21961,7 +21961,7 @@
         <v>1087</v>
       </c>
       <c r="AM534" s="5" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="AN534" t="s">
         <v>1098</v>
@@ -22051,7 +22051,7 @@
         <v>1087</v>
       </c>
       <c r="AM537" s="5" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="AN537" s="5" t="s">
         <v>1098</v>
@@ -22891,7 +22891,7 @@
         <v>1087</v>
       </c>
       <c r="AM567" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="AN567" s="5" t="s">
         <v>1099</v>
@@ -22999,7 +22999,7 @@
         <v>1087</v>
       </c>
       <c r="AM570" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="AN570" s="5" t="s">
         <v>1100</v>
@@ -23646,7 +23646,7 @@
       </c>
       <c r="AD589" s="15"/>
       <c r="AJ589" s="5" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="AK589" s="5" t="s">
         <v>1049</v>
@@ -23747,7 +23747,7 @@
         <v>1087</v>
       </c>
       <c r="AM591" s="5" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="AN591" t="s">
         <v>1098</v>
@@ -26330,7 +26330,7 @@
         <v>1087</v>
       </c>
       <c r="AM659" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="AN659" t="s">
         <v>1098</v>
@@ -29290,7 +29290,7 @@
       </c>
       <c r="AD747" s="18"/>
       <c r="AM747" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="AN747" t="s">
         <v>1099</v>
@@ -29344,7 +29344,7 @@
       </c>
       <c r="AD748" s="18"/>
       <c r="AM748" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="AN748" t="s">
         <v>1099</v>
@@ -32105,7 +32105,7 @@
         <v>1087</v>
       </c>
       <c r="AM832" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="AN832" s="5" t="s">
         <v>1098</v>
@@ -32670,7 +32670,7 @@
         <v>1087</v>
       </c>
       <c r="AM848" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="AN848" s="5" t="s">
         <v>1099</v>
@@ -32749,7 +32749,7 @@
         <v>1087</v>
       </c>
       <c r="AM850" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="AN850" s="5" t="s">
         <v>1098</v>
@@ -33626,7 +33626,7 @@
         <v>1087</v>
       </c>
       <c r="AM876" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="AN876" t="s">
         <v>1099</v>
@@ -33819,7 +33819,7 @@
         <v>1087</v>
       </c>
       <c r="AM881" s="5" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="AN881" s="5" t="s">
         <v>1099</v>

--- a/code/eyeTrackingParams.xlsx
+++ b/code/eyeTrackingParams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aguirre/Documents/MATLAB/projects/eyeTrackTOMEAnalysis/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DA8219-E214-3142-88BE-E0AC012625C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4DACBD-6B6F-B844-940F-242D74F08C18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="1160" windowWidth="24420" windowHeight="15060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1700" yWindow="1160" windowWidth="25420" windowHeight="12040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eyeTrackingParams" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9832" uniqueCount="1299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9833" uniqueCount="1300">
   <si>
     <t>projectSubfolder</t>
   </si>
@@ -3927,6 +3927,9 @@
   </si>
   <si>
     <t>[4, 736, 1802, 2816, 5117, 6318, 8073, 9684, 11460, 12636, 13891, 15189, 16955, 18943]</t>
+  </si>
+  <si>
+    <t>[30 140 334 202]</t>
   </si>
 </sst>
 </file>
@@ -4466,10 +4469,10 @@
   <dimension ref="A1:AQ979"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="AI143" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E930" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AJ158" sqref="AJ158"/>
+      <selection pane="bottomRight" activeCell="E943" sqref="E943"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -35977,6 +35980,9 @@
       <c r="D942" s="4" t="s">
         <v>840</v>
       </c>
+      <c r="E942" s="4" t="s">
+        <v>1299</v>
+      </c>
       <c r="W942" s="5" t="s">
         <v>1240</v>
       </c>

--- a/code/eyeTrackingParams.xlsx
+++ b/code/eyeTrackingParams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aguirre/Documents/MATLAB/projects/eyeTrackTOMEAnalysis/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4DACBD-6B6F-B844-940F-242D74F08C18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56D6BAA-2D26-F345-ABE5-9853C723B9DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="1160" windowWidth="25420" windowHeight="12040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11820" yWindow="460" windowWidth="16060" windowHeight="17140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eyeTrackingParams" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9833" uniqueCount="1300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9859" uniqueCount="1326">
   <si>
     <t>projectSubfolder</t>
   </si>
@@ -3839,15 +3839,9 @@
     <t>[11, 766, 1586, 3125, 4268, 5459, 6796, 8709, 9790, 11550, 12781, 14093, 17111, 19348]</t>
   </si>
   <si>
-    <t>[-3.83; 1.26]</t>
-  </si>
-  <si>
     <t>[2.44; -2.81]</t>
   </si>
   <si>
-    <t>[2.69; -3.20]</t>
-  </si>
-  <si>
     <t>[3.33; -2.20]</t>
   </si>
   <si>
@@ -3869,9 +3863,6 @@
     <t>[-2.50; -2.48]</t>
   </si>
   <si>
-    <t>[0.30; 2.13]</t>
-  </si>
-  <si>
     <t>[0.22; 0.90]</t>
   </si>
   <si>
@@ -3887,15 +3878,9 @@
     <t>[0.00; -2.30]</t>
   </si>
   <si>
-    <t>[-1.00; 1.63]</t>
-  </si>
-  <si>
     <t>[-2.50; 1.57]</t>
   </si>
   <si>
-    <t>[-2.00; -0.80]</t>
-  </si>
-  <si>
     <t>[-1.50; 0.83]</t>
   </si>
   <si>
@@ -3930,6 +3915,99 @@
   </si>
   <si>
     <t>[30 140 334 202]</t>
+  </si>
+  <si>
+    <t>[-4.50; 1.03]</t>
+  </si>
+  <si>
+    <t>[3.10; -2.54; 159.62]</t>
+  </si>
+  <si>
+    <t>[0.21; 2.63; 178.77]</t>
+  </si>
+  <si>
+    <t>[-2.00; 1.34; 169.59]</t>
+  </si>
+  <si>
+    <t>[-0.24; -0.09; 165.71]</t>
+  </si>
+  <si>
+    <t>[3.00; -1.67; 152.70]</t>
+  </si>
+  <si>
+    <t>[-0.40; -0.50; 152.69]</t>
+  </si>
+  <si>
+    <t>[1.50; -0.17; 152.70]</t>
+  </si>
+  <si>
+    <t>[-2.83; -4.32; 139.16]</t>
+  </si>
+  <si>
+    <t>[4.26; 1.50; 142.08]</t>
+  </si>
+  <si>
+    <t>[3.68; 1.00; 142.10]</t>
+  </si>
+  <si>
+    <t>[-2.51; -1.50; 151.95]</t>
+  </si>
+  <si>
+    <t>[-2.00; -3.01; 151.62]</t>
+  </si>
+  <si>
+    <t>[-1.50; -0.51; 151.85]</t>
+  </si>
+  <si>
+    <t>[-5.21; -1.50; 142.74]</t>
+  </si>
+  <si>
+    <t>[2.16; -0.50; 178.96]</t>
+  </si>
+  <si>
+    <t>[1.88; -2.50; 178.98]</t>
+  </si>
+  <si>
+    <t>[0.34; 0.50; 162.24]</t>
+  </si>
+  <si>
+    <t>[-3.00; 0.90; 160.00]</t>
+  </si>
+  <si>
+    <t>[-4.81; -2.09; 160.00]</t>
+  </si>
+  <si>
+    <t>[0.00; -2.50; 174.21]</t>
+  </si>
+  <si>
+    <t>[1.92; -4.00; 167.38]</t>
+  </si>
+  <si>
+    <t>[1.12; 3.96; 162.97]</t>
+  </si>
+  <si>
+    <t>[-0.54; 1.46; 174.69]</t>
+  </si>
+  <si>
+    <t>[-2.56; 1.67; 174.69]</t>
+  </si>
+  <si>
+    <t>[-2.52; 1.10; 174.69]</t>
+  </si>
+  <si>
+    <t>[-1.76; -2.84; 171.14]</t>
+  </si>
+  <si>
+    <t>[-3.43; -2.66; 174.55]</t>
+  </si>
+  <si>
+    <t>[-3.07; -2.90; 174.55]</t>
+  </si>
+  <si>
+    <t>[0.19; -8.05; 159.12]</t>
+  </si>
+  <si>
+    <t>[0.48; -5.07; 159.71]</t>
   </si>
 </sst>
 </file>
@@ -4469,10 +4547,10 @@
   <dimension ref="A1:AQ979"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E930" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="AK329" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E943" sqref="E943"/>
+      <selection pane="bottomRight" activeCell="AM351" sqref="AM351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5621,7 +5699,7 @@
         <v>738</v>
       </c>
       <c r="AM32" s="5" t="s">
-        <v>1269</v>
+        <v>1295</v>
       </c>
       <c r="AN32" s="5" t="s">
         <v>95</v>
@@ -6051,7 +6129,7 @@
         <v>1243</v>
       </c>
       <c r="AM45" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="AN45" s="5" t="s">
         <v>95</v>
@@ -6110,7 +6188,7 @@
         <v>1244</v>
       </c>
       <c r="AM46" t="s">
-        <v>1271</v>
+        <v>1296</v>
       </c>
       <c r="AN46" s="5" t="s">
         <v>95</v>
@@ -7010,7 +7088,7 @@
         <v>727</v>
       </c>
       <c r="AM75" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="AN75" s="5" t="s">
         <v>1105</v>
@@ -8791,7 +8869,7 @@
         <v>727</v>
       </c>
       <c r="AJ137" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="AN137" s="5" t="s">
         <v>95</v>
@@ -9555,7 +9633,7 @@
         <v>727</v>
       </c>
       <c r="AJ158" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="AN158" s="5" t="s">
         <v>95</v>
@@ -10101,6 +10179,9 @@
       <c r="X174" s="5" t="s">
         <v>727</v>
       </c>
+      <c r="AM174" t="s">
+        <v>1304</v>
+      </c>
       <c r="AN174" s="5" t="s">
         <v>95</v>
       </c>
@@ -10148,6 +10229,9 @@
       <c r="X175" s="5" t="s">
         <v>727</v>
       </c>
+      <c r="AM175" t="s">
+        <v>1305</v>
+      </c>
       <c r="AN175" s="5" t="s">
         <v>95</v>
       </c>
@@ -10730,6 +10814,9 @@
       <c r="X192" s="5" t="s">
         <v>789</v>
       </c>
+      <c r="AM192" t="s">
+        <v>1306</v>
+      </c>
       <c r="AN192" s="5" t="s">
         <v>95</v>
       </c>
@@ -11286,7 +11373,7 @@
         <v>727</v>
       </c>
       <c r="AM211" s="5" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="AN211" s="5" t="s">
         <v>95</v>
@@ -11835,7 +11922,7 @@
         <v>727</v>
       </c>
       <c r="AM226" s="5" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="AN226" s="5" t="s">
         <v>95</v>
@@ -12028,7 +12115,7 @@
         <v>727</v>
       </c>
       <c r="AM233" s="5" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="AN233" s="5" t="s">
         <v>95</v>
@@ -12190,7 +12277,7 @@
         <v>728</v>
       </c>
       <c r="AM236" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="AN236" s="5" t="s">
         <v>95</v>
@@ -13734,6 +13821,9 @@
       <c r="X283" s="5" t="s">
         <v>727</v>
       </c>
+      <c r="AM283" t="s">
+        <v>1312</v>
+      </c>
       <c r="AN283" s="5" t="s">
         <v>95</v>
       </c>
@@ -14051,6 +14141,9 @@
       <c r="AJ291" t="s">
         <v>1260</v>
       </c>
+      <c r="AM291" t="s">
+        <v>1313</v>
+      </c>
       <c r="AN291" s="5" t="s">
         <v>95</v>
       </c>
@@ -14113,6 +14206,9 @@
       <c r="AJ292" t="s">
         <v>1261</v>
       </c>
+      <c r="AM292" t="s">
+        <v>1314</v>
+      </c>
       <c r="AN292" s="5" t="s">
         <v>95</v>
       </c>
@@ -15520,6 +15616,9 @@
       <c r="X334" s="5" t="s">
         <v>727</v>
       </c>
+      <c r="AM334" t="s">
+        <v>1318</v>
+      </c>
       <c r="AN334" s="5" t="s">
         <v>95</v>
       </c>
@@ -15567,6 +15666,9 @@
       <c r="X335" s="5" t="s">
         <v>727</v>
       </c>
+      <c r="AM335" t="s">
+        <v>1320</v>
+      </c>
       <c r="AN335" s="5" t="s">
         <v>95</v>
       </c>
@@ -15614,6 +15716,9 @@
       <c r="X336" s="5" t="s">
         <v>727</v>
       </c>
+      <c r="AM336" t="s">
+        <v>1319</v>
+      </c>
       <c r="AN336" s="5" t="s">
         <v>95</v>
       </c>
@@ -15769,6 +15874,9 @@
       <c r="X341" s="5" t="s">
         <v>727</v>
       </c>
+      <c r="AM341" t="s">
+        <v>1321</v>
+      </c>
       <c r="AN341" s="5" t="s">
         <v>95</v>
       </c>
@@ -15982,6 +16090,9 @@
       <c r="X348" s="5" t="s">
         <v>727</v>
       </c>
+      <c r="AM348" t="s">
+        <v>1324</v>
+      </c>
       <c r="AN348" s="5" t="s">
         <v>95</v>
       </c>
@@ -16095,6 +16206,9 @@
       </c>
       <c r="X351" s="5" t="s">
         <v>727</v>
+      </c>
+      <c r="AM351" t="s">
+        <v>1325</v>
       </c>
       <c r="AN351" s="5" t="s">
         <v>95</v>
@@ -17654,7 +17768,7 @@
         <v>1087</v>
       </c>
       <c r="AM402" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="AN402" s="5" t="s">
         <v>1098</v>
@@ -18401,7 +18515,7 @@
         <v>1087</v>
       </c>
       <c r="AM425" s="5" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="AN425" t="s">
         <v>1101</v>
@@ -19532,8 +19646,8 @@
       <c r="X457" s="5" t="s">
         <v>1087</v>
       </c>
-      <c r="AM457" s="5" t="s">
-        <v>1279</v>
+      <c r="AM457" t="s">
+        <v>1297</v>
       </c>
       <c r="AN457" t="s">
         <v>1101</v>
@@ -19676,7 +19790,7 @@
         <v>1087</v>
       </c>
       <c r="AM461" s="5" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="AN461" t="s">
         <v>1101</v>
@@ -19784,7 +19898,7 @@
         <v>1087</v>
       </c>
       <c r="AM464" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="AN464" s="5" t="s">
         <v>1101</v>
@@ -19822,7 +19936,7 @@
         <v>1087</v>
       </c>
       <c r="AM465" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="AN465" s="5" t="s">
         <v>1101</v>
@@ -21439,7 +21553,7 @@
         <v>400</v>
       </c>
       <c r="AM518" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="AN518" t="s">
         <v>1101</v>
@@ -21671,7 +21785,7 @@
         <v>1087</v>
       </c>
       <c r="AM523" s="5" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="AN523" s="5" t="s">
         <v>1101</v>
@@ -21963,8 +22077,8 @@
       <c r="X534" s="5" t="s">
         <v>1087</v>
       </c>
-      <c r="AM534" s="5" t="s">
-        <v>1285</v>
+      <c r="AM534" t="s">
+        <v>1298</v>
       </c>
       <c r="AN534" t="s">
         <v>1098</v>
@@ -22054,7 +22168,7 @@
         <v>1087</v>
       </c>
       <c r="AM537" s="5" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="AN537" s="5" t="s">
         <v>1098</v>
@@ -22894,7 +23008,7 @@
         <v>1087</v>
       </c>
       <c r="AM567" t="s">
-        <v>1287</v>
+        <v>1299</v>
       </c>
       <c r="AN567" s="5" t="s">
         <v>1099</v>
@@ -23002,7 +23116,7 @@
         <v>1087</v>
       </c>
       <c r="AM570" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="AN570" s="5" t="s">
         <v>1100</v>
@@ -24382,6 +24496,9 @@
       <c r="X607" s="5" t="s">
         <v>1087</v>
       </c>
+      <c r="AM607" t="s">
+        <v>1302</v>
+      </c>
       <c r="AN607" t="s">
         <v>1098</v>
       </c>
@@ -24420,6 +24537,9 @@
       <c r="X608" s="5" t="s">
         <v>1087</v>
       </c>
+      <c r="AM608" t="s">
+        <v>1301</v>
+      </c>
       <c r="AN608" t="s">
         <v>1098</v>
       </c>
@@ -24533,6 +24653,9 @@
       </c>
       <c r="X611" s="5" t="s">
         <v>1087</v>
+      </c>
+      <c r="AM611" t="s">
+        <v>1300</v>
       </c>
       <c r="AN611" t="s">
         <v>1098</v>
@@ -24995,6 +25118,9 @@
       <c r="X625" s="5" t="s">
         <v>1087</v>
       </c>
+      <c r="AM625" t="s">
+        <v>1303</v>
+      </c>
       <c r="AN625" t="s">
         <v>1099</v>
       </c>
@@ -26333,7 +26459,7 @@
         <v>1087</v>
       </c>
       <c r="AM659" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="AN659" t="s">
         <v>1098</v>
@@ -29293,7 +29419,7 @@
       </c>
       <c r="AD747" s="18"/>
       <c r="AM747" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="AN747" t="s">
         <v>1099</v>
@@ -29347,7 +29473,7 @@
       </c>
       <c r="AD748" s="18"/>
       <c r="AM748" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="AN748" t="s">
         <v>1099</v>
@@ -29934,6 +30060,9 @@
       <c r="X763" s="5" t="s">
         <v>1087</v>
       </c>
+      <c r="AM763" t="s">
+        <v>1308</v>
+      </c>
       <c r="AN763" t="s">
         <v>1100</v>
       </c>
@@ -30141,6 +30270,9 @@
       </c>
       <c r="X771" s="5" t="s">
         <v>1087</v>
+      </c>
+      <c r="AM771" t="s">
+        <v>1307</v>
       </c>
       <c r="AN771" s="5" t="s">
         <v>1101</v>
@@ -30509,6 +30641,9 @@
       <c r="X782" s="5" t="s">
         <v>1087</v>
       </c>
+      <c r="AM782" t="s">
+        <v>1309</v>
+      </c>
       <c r="AN782" t="s">
         <v>1101</v>
       </c>
@@ -30892,6 +31027,9 @@
       </c>
       <c r="X794" s="5" t="s">
         <v>1087</v>
+      </c>
+      <c r="AM794" t="s">
+        <v>1310</v>
       </c>
       <c r="AN794" t="s">
         <v>1099</v>
@@ -31238,6 +31376,9 @@
       <c r="X803" s="5" t="s">
         <v>1087</v>
       </c>
+      <c r="AM803" t="s">
+        <v>1311</v>
+      </c>
       <c r="AN803" t="s">
         <v>1099</v>
       </c>
@@ -32108,7 +32249,7 @@
         <v>1087</v>
       </c>
       <c r="AM832" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="AN832" s="5" t="s">
         <v>1098</v>
@@ -32673,7 +32814,7 @@
         <v>1087</v>
       </c>
       <c r="AM848" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="AN848" s="5" t="s">
         <v>1099</v>
@@ -32752,7 +32893,7 @@
         <v>1087</v>
       </c>
       <c r="AM850" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="AN850" s="5" t="s">
         <v>1098</v>
@@ -33629,7 +33770,7 @@
         <v>1087</v>
       </c>
       <c r="AM876" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="AN876" t="s">
         <v>1099</v>
@@ -33822,7 +33963,7 @@
         <v>1087</v>
       </c>
       <c r="AM881" s="5" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="AN881" s="5" t="s">
         <v>1099</v>
@@ -34435,6 +34576,9 @@
       <c r="Z895" s="4" t="s">
         <v>1029</v>
       </c>
+      <c r="AM895" t="s">
+        <v>1315</v>
+      </c>
       <c r="AN895" s="5" t="s">
         <v>1100</v>
       </c>
@@ -34740,6 +34884,9 @@
       <c r="X905" s="5" t="s">
         <v>1087</v>
       </c>
+      <c r="AM905" s="5" t="s">
+        <v>1316</v>
+      </c>
       <c r="AN905" t="s">
         <v>1099</v>
       </c>
@@ -35981,7 +36128,7 @@
         <v>840</v>
       </c>
       <c r="E942" s="4" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="W942" s="5" t="s">
         <v>1240</v>
@@ -36252,6 +36399,9 @@
       </c>
       <c r="X953" s="5" t="s">
         <v>1087</v>
+      </c>
+      <c r="AM953" t="s">
+        <v>1317</v>
       </c>
       <c r="AN953" t="s">
         <v>1098</v>
@@ -37089,6 +37239,9 @@
       <c r="X974" s="5" t="s">
         <v>1087</v>
       </c>
+      <c r="AM974" t="s">
+        <v>1322</v>
+      </c>
       <c r="AN974" s="5" t="s">
         <v>1098</v>
       </c>
@@ -37141,6 +37294,9 @@
       </c>
       <c r="X975" s="5" t="s">
         <v>1087</v>
+      </c>
+      <c r="AM975" t="s">
+        <v>1323</v>
       </c>
       <c r="AN975" s="5" t="s">
         <v>1098</v>

--- a/code/eyeTrackingParams.xlsx
+++ b/code/eyeTrackingParams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aguirre/Documents/MATLAB/projects/eyeTrackTOMEAnalysis/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4844C26-D1A2-DE40-8C95-53F91B26ADFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A1427B-8FB9-424A-8A7E-F3E36A9E9106}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="460" windowWidth="23560" windowHeight="16360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2140" yWindow="460" windowWidth="23560" windowHeight="16360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eyeTrackingParams" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9851" uniqueCount="1318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9852" uniqueCount="1319">
   <si>
     <t>projectSubfolder</t>
   </si>
@@ -3905,9 +3905,6 @@
     <t>[-2.00; 1.34; 169.59]</t>
   </si>
   <si>
-    <t>[-0.24; -0.09; 165.71]</t>
-  </si>
-  <si>
     <t>[3.00; -1.67; 152.70]</t>
   </si>
   <si>
@@ -3941,9 +3938,6 @@
     <t>[2.16; -0.50; 178.96]</t>
   </si>
   <si>
-    <t>[1.88; -2.50; 178.98]</t>
-  </si>
-  <si>
     <t>[0.34; 0.50; 162.24]</t>
   </si>
   <si>
@@ -3984,6 +3978,15 @@
   </si>
   <si>
     <t>[0.48; -5.07; 159.71]</t>
+  </si>
+  <si>
+    <t>[-1.00; -0.99; 165.32]</t>
+  </si>
+  <si>
+    <t>[-1.50; 2.09; 156.10]</t>
+  </si>
+  <si>
+    <t>[1.88; -2.50; 178.96]</t>
   </si>
 </sst>
 </file>
@@ -4523,10 +4526,10 @@
   <dimension ref="A1:AQ979"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="AH525" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="AG788" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AJ531" sqref="AJ531"/>
+      <selection pane="bottomRight" activeCell="AM802" sqref="AM802"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10156,7 +10159,7 @@
         <v>727</v>
       </c>
       <c r="AM174" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="AN174" s="5" t="s">
         <v>95</v>
@@ -10206,7 +10209,7 @@
         <v>727</v>
       </c>
       <c r="AM175" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="AN175" s="5" t="s">
         <v>95</v>
@@ -10791,7 +10794,7 @@
         <v>789</v>
       </c>
       <c r="AM192" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="AN192" s="5" t="s">
         <v>95</v>
@@ -13798,7 +13801,7 @@
         <v>727</v>
       </c>
       <c r="AM283" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="AN283" s="5" t="s">
         <v>95</v>
@@ -14118,7 +14121,7 @@
         <v>1252</v>
       </c>
       <c r="AM291" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="AN291" s="5" t="s">
         <v>95</v>
@@ -14183,7 +14186,7 @@
         <v>1253</v>
       </c>
       <c r="AM292" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="AN292" s="5" t="s">
         <v>95</v>
@@ -15593,7 +15596,7 @@
         <v>727</v>
       </c>
       <c r="AM334" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="AN334" s="5" t="s">
         <v>95</v>
@@ -15643,7 +15646,7 @@
         <v>727</v>
       </c>
       <c r="AM335" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="AN335" s="5" t="s">
         <v>95</v>
@@ -15693,7 +15696,7 @@
         <v>727</v>
       </c>
       <c r="AM336" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="AN336" s="5" t="s">
         <v>95</v>
@@ -15851,7 +15854,7 @@
         <v>727</v>
       </c>
       <c r="AM341" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="AN341" s="5" t="s">
         <v>95</v>
@@ -16067,7 +16070,7 @@
         <v>727</v>
       </c>
       <c r="AM348" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="AN348" s="5" t="s">
         <v>95</v>
@@ -16184,7 +16187,7 @@
         <v>727</v>
       </c>
       <c r="AM351" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="AN351" s="5" t="s">
         <v>95</v>
@@ -22960,7 +22963,7 @@
         <v>1079</v>
       </c>
       <c r="AM567" t="s">
-        <v>1291</v>
+        <v>1316</v>
       </c>
       <c r="AN567" s="5" t="s">
         <v>1091</v>
@@ -24449,7 +24452,7 @@
         <v>1079</v>
       </c>
       <c r="AM607" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="AN607" t="s">
         <v>1090</v>
@@ -24490,7 +24493,7 @@
         <v>1079</v>
       </c>
       <c r="AM608" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="AN608" t="s">
         <v>1090</v>
@@ -24607,7 +24610,7 @@
         <v>1079</v>
       </c>
       <c r="AM611" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="AN611" t="s">
         <v>1090</v>
@@ -25071,7 +25074,7 @@
         <v>1079</v>
       </c>
       <c r="AM625" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="AN625" t="s">
         <v>1091</v>
@@ -30013,7 +30016,7 @@
         <v>1079</v>
       </c>
       <c r="AM763" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="AN763" t="s">
         <v>1092</v>
@@ -30067,6 +30070,9 @@
       <c r="X765" s="5" t="s">
         <v>1079</v>
       </c>
+      <c r="AM765" t="s">
+        <v>1317</v>
+      </c>
       <c r="AN765" t="s">
         <v>1091</v>
       </c>
@@ -30224,7 +30230,7 @@
         <v>1079</v>
       </c>
       <c r="AM771" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="AN771" s="5" t="s">
         <v>1093</v>
@@ -30594,7 +30600,7 @@
         <v>1079</v>
       </c>
       <c r="AM782" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="AN782" t="s">
         <v>1093</v>
@@ -30981,7 +30987,7 @@
         <v>1079</v>
       </c>
       <c r="AM794" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="AN794" t="s">
         <v>1091</v>
@@ -31329,7 +31335,7 @@
         <v>1079</v>
       </c>
       <c r="AM803" t="s">
-        <v>1303</v>
+        <v>1318</v>
       </c>
       <c r="AN803" t="s">
         <v>1091</v>
@@ -34529,7 +34535,7 @@
         <v>1029</v>
       </c>
       <c r="AM895" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="AN895" s="5" t="s">
         <v>1092</v>
@@ -34837,7 +34843,7 @@
         <v>1079</v>
       </c>
       <c r="AM905" s="5" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="AN905" t="s">
         <v>1091</v>
@@ -36353,7 +36359,7 @@
         <v>1079</v>
       </c>
       <c r="AM953" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="AN953" t="s">
         <v>1090</v>
@@ -37192,7 +37198,7 @@
         <v>1079</v>
       </c>
       <c r="AM974" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="AN974" s="5" t="s">
         <v>1090</v>
@@ -37248,7 +37254,7 @@
         <v>1079</v>
       </c>
       <c r="AM975" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="AN975" s="5" t="s">
         <v>1090</v>

--- a/code/eyeTrackingParams.xlsx
+++ b/code/eyeTrackingParams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aguirre/Documents/MATLAB/projects/eyeTrackTOMEAnalysis/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A1427B-8FB9-424A-8A7E-F3E36A9E9106}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B987E416-2743-924B-B1F1-4B87F58D5212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2140" yWindow="460" windowWidth="23560" windowHeight="16360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4526,10 +4526,10 @@
   <dimension ref="A1:AQ979"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="AG788" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="AI956" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AM802" sqref="AM802"/>
+      <selection pane="bottomRight" activeCell="AM975" sqref="AM975"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -36868,7 +36868,7 @@
         <v>1079</v>
       </c>
       <c r="AN968" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="AO968" t="s">
         <v>1059</v>
@@ -36921,7 +36921,7 @@
         <v>1079</v>
       </c>
       <c r="AN969" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="AO969" t="s">
         <v>1059</v>
@@ -36986,7 +36986,7 @@
       <c r="AL970" s="4"/>
       <c r="AM970" s="4"/>
       <c r="AN970" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="AO970" t="s">
         <v>1059</v>
@@ -37039,7 +37039,7 @@
         <v>1079</v>
       </c>
       <c r="AN971" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="AO971" t="s">
         <v>1059</v>
@@ -37145,7 +37145,7 @@
         <v>1079</v>
       </c>
       <c r="AN973" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="AO973" t="s">
         <v>1059</v>
@@ -37200,8 +37200,8 @@
       <c r="AM974" t="s">
         <v>1312</v>
       </c>
-      <c r="AN974" s="5" t="s">
-        <v>1090</v>
+      <c r="AN974" t="s">
+        <v>1093</v>
       </c>
       <c r="AO974" t="s">
         <v>1059</v>
@@ -37256,8 +37256,8 @@
       <c r="AM975" t="s">
         <v>1313</v>
       </c>
-      <c r="AN975" s="5" t="s">
-        <v>1090</v>
+      <c r="AN975" t="s">
+        <v>1093</v>
       </c>
       <c r="AO975" t="s">
         <v>1059</v>
@@ -37309,8 +37309,8 @@
       <c r="X976" s="5" t="s">
         <v>1079</v>
       </c>
-      <c r="AN976" s="5" t="s">
-        <v>1092</v>
+      <c r="AN976" t="s">
+        <v>1093</v>
       </c>
       <c r="AO976" t="s">
         <v>1059</v>
@@ -37365,8 +37365,8 @@
       <c r="X977" s="5" t="s">
         <v>1079</v>
       </c>
-      <c r="AN977" s="5" t="s">
-        <v>1091</v>
+      <c r="AN977" t="s">
+        <v>1093</v>
       </c>
       <c r="AO977" t="s">
         <v>1059</v>

--- a/code/eyeTrackingParams.xlsx
+++ b/code/eyeTrackingParams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aguirre/Documents/MATLAB/projects/eyeTrackTOMEAnalysis/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B987E416-2743-924B-B1F1-4B87F58D5212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88DF2CC-CF21-794C-A9C2-81511CDBB172}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2140" yWindow="460" windowWidth="23560" windowHeight="16360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9852" uniqueCount="1319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9852" uniqueCount="1320">
   <si>
     <t>projectSubfolder</t>
   </si>
@@ -3987,6 +3987,9 @@
   </si>
   <si>
     <t>[1.88; -2.50; 178.96]</t>
+  </si>
+  <si>
+    <t>[53 150]</t>
   </si>
 </sst>
 </file>
@@ -4526,10 +4529,10 @@
   <dimension ref="A1:AQ979"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="AI956" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="J601" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AM975" sqref="AM975"/>
+      <selection pane="bottomRight" activeCell="K609" sqref="K609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -24481,7 +24484,7 @@
         <v>208</v>
       </c>
       <c r="K608" s="4" t="s">
-        <v>950</v>
+        <v>1319</v>
       </c>
       <c r="L608" s="4" t="s">
         <v>396</v>

--- a/code/eyeTrackingParams.xlsx
+++ b/code/eyeTrackingParams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aguirre/Documents/MATLAB/projects/eyeTrackTOMEAnalysis/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DA5980-6B45-3A49-A7AE-5B8353D6565F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AEA352-8766-534A-8283-93588AACDA3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="460" windowWidth="23560" windowHeight="16360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1300" yWindow="460" windowWidth="23560" windowHeight="16360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eyeTrackingParams" sheetId="1" r:id="rId1"/>
@@ -3890,9 +3890,6 @@
     <t>[30 140 334 202]</t>
   </si>
   <si>
-    <t>[-4.50; 1.03]</t>
-  </si>
-  <si>
     <t>[3.10; -2.54; 159.62]</t>
   </si>
   <si>
@@ -3977,9 +3974,6 @@
     <t>[0.48; -5.07; 159.71]</t>
   </si>
   <si>
-    <t>[-1.00; -0.99; 165.32]</t>
-  </si>
-  <si>
     <t>[-1.50; 2.09; 156.10]</t>
   </si>
   <si>
@@ -3990,6 +3984,12 @@
   </si>
   <si>
     <t>[ 0; pi]</t>
+  </si>
+  <si>
+    <t>[[-1.50; -0.72]</t>
+  </si>
+  <si>
+    <t>[-3.00; 0.03]</t>
   </si>
 </sst>
 </file>
@@ -4529,10 +4529,10 @@
   <dimension ref="A1:AQ979"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="Q592" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="AK15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S611" sqref="S611"/>
+      <selection pane="bottomRight" activeCell="AM32" sqref="AM32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5681,7 +5681,7 @@
         <v>738</v>
       </c>
       <c r="AM32" s="5" t="s">
-        <v>1286</v>
+        <v>1319</v>
       </c>
       <c r="AN32" s="5" t="s">
         <v>95</v>
@@ -6170,7 +6170,7 @@
         <v>1235</v>
       </c>
       <c r="AM46" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="AN46" s="5" t="s">
         <v>95</v>
@@ -10162,7 +10162,7 @@
         <v>727</v>
       </c>
       <c r="AM174" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="AN174" s="5" t="s">
         <v>95</v>
@@ -10212,7 +10212,7 @@
         <v>727</v>
       </c>
       <c r="AM175" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="AN175" s="5" t="s">
         <v>95</v>
@@ -10797,7 +10797,7 @@
         <v>789</v>
       </c>
       <c r="AM192" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="AN192" s="5" t="s">
         <v>95</v>
@@ -13804,7 +13804,7 @@
         <v>727</v>
       </c>
       <c r="AM283" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="AN283" s="5" t="s">
         <v>95</v>
@@ -14124,7 +14124,7 @@
         <v>1251</v>
       </c>
       <c r="AM291" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="AN291" s="5" t="s">
         <v>95</v>
@@ -14189,7 +14189,7 @@
         <v>1252</v>
       </c>
       <c r="AM292" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="AN292" s="5" t="s">
         <v>95</v>
@@ -15599,7 +15599,7 @@
         <v>727</v>
       </c>
       <c r="AM334" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="AN334" s="5" t="s">
         <v>95</v>
@@ -15649,7 +15649,7 @@
         <v>727</v>
       </c>
       <c r="AM335" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="AN335" s="5" t="s">
         <v>95</v>
@@ -15699,7 +15699,7 @@
         <v>727</v>
       </c>
       <c r="AM336" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="AN336" s="5" t="s">
         <v>95</v>
@@ -15857,7 +15857,7 @@
         <v>727</v>
       </c>
       <c r="AM341" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="AN341" s="5" t="s">
         <v>95</v>
@@ -16073,7 +16073,7 @@
         <v>727</v>
       </c>
       <c r="AM348" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="AN348" s="5" t="s">
         <v>95</v>
@@ -16190,7 +16190,7 @@
         <v>727</v>
       </c>
       <c r="AM351" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="AN351" s="5" t="s">
         <v>95</v>
@@ -19605,7 +19605,7 @@
         <v>1078</v>
       </c>
       <c r="AM457" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="AN457" t="s">
         <v>1092</v>
@@ -22036,7 +22036,7 @@
         <v>1078</v>
       </c>
       <c r="AM534" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AN534" t="s">
         <v>1089</v>
@@ -22966,7 +22966,7 @@
         <v>1078</v>
       </c>
       <c r="AM567" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="AN567" s="5" t="s">
         <v>1090</v>
@@ -24405,13 +24405,13 @@
         <v>208</v>
       </c>
       <c r="K606" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="L606" s="4" t="s">
         <v>396</v>
       </c>
       <c r="T606" s="4" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="U606" s="4" t="s">
         <v>690</v>
@@ -24449,13 +24449,13 @@
         <v>208</v>
       </c>
       <c r="K607" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="L607" s="4" t="s">
         <v>396</v>
       </c>
       <c r="T607" s="4" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="U607" s="4" t="s">
         <v>690</v>
@@ -24467,7 +24467,7 @@
         <v>1078</v>
       </c>
       <c r="AM607" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="AN607" t="s">
         <v>1089</v>
@@ -24496,13 +24496,13 @@
         <v>208</v>
       </c>
       <c r="K608" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="L608" s="4" t="s">
         <v>396</v>
       </c>
       <c r="T608" s="4" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="U608" s="4" t="s">
         <v>690</v>
@@ -24514,7 +24514,7 @@
         <v>1078</v>
       </c>
       <c r="AM608" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="AN608" t="s">
         <v>1089</v>
@@ -24543,13 +24543,13 @@
         <v>208</v>
       </c>
       <c r="K609" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="L609" s="4" t="s">
         <v>396</v>
       </c>
       <c r="T609" s="4" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="U609" s="4" t="s">
         <v>690</v>
@@ -24587,13 +24587,13 @@
         <v>208</v>
       </c>
       <c r="K610" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="L610" s="4" t="s">
         <v>396</v>
       </c>
       <c r="T610" s="4" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="U610" s="4" t="s">
         <v>690</v>
@@ -24631,13 +24631,13 @@
         <v>208</v>
       </c>
       <c r="K611" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="L611" s="4" t="s">
         <v>396</v>
       </c>
       <c r="T611" s="4" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="U611" s="4" t="s">
         <v>690</v>
@@ -24649,7 +24649,7 @@
         <v>1078</v>
       </c>
       <c r="AM611" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="AN611" t="s">
         <v>1089</v>
@@ -24678,13 +24678,13 @@
         <v>208</v>
       </c>
       <c r="K612" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="L612" s="4" t="s">
         <v>396</v>
       </c>
       <c r="T612" s="4" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="U612" s="4" t="s">
         <v>690</v>
@@ -24722,13 +24722,13 @@
         <v>208</v>
       </c>
       <c r="K613" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="L613" s="4" t="s">
         <v>396</v>
       </c>
       <c r="T613" s="4" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="U613" s="4" t="s">
         <v>690</v>
@@ -24766,13 +24766,13 @@
         <v>208</v>
       </c>
       <c r="K614" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="L614" s="4" t="s">
         <v>396</v>
       </c>
       <c r="T614" s="4" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="U614" s="4" t="s">
         <v>690</v>
@@ -24810,13 +24810,13 @@
         <v>208</v>
       </c>
       <c r="K615" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="L615" s="4" t="s">
         <v>396</v>
       </c>
       <c r="T615" s="4" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="U615" s="4" t="s">
         <v>690</v>
@@ -25137,7 +25137,7 @@
         <v>1078</v>
       </c>
       <c r="AM625" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="AN625" t="s">
         <v>1090</v>
@@ -30079,7 +30079,7 @@
         <v>1078</v>
       </c>
       <c r="AM763" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="AN763" t="s">
         <v>1091</v>
@@ -30134,7 +30134,7 @@
         <v>1078</v>
       </c>
       <c r="AM765" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="AN765" t="s">
         <v>1090</v>
@@ -30293,7 +30293,7 @@
         <v>1078</v>
       </c>
       <c r="AM771" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="AN771" s="5" t="s">
         <v>1092</v>
@@ -30663,7 +30663,7 @@
         <v>1078</v>
       </c>
       <c r="AM782" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="AN782" t="s">
         <v>1092</v>
@@ -31050,7 +31050,7 @@
         <v>1078</v>
       </c>
       <c r="AM794" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="AN794" t="s">
         <v>1090</v>
@@ -31398,7 +31398,7 @@
         <v>1078</v>
       </c>
       <c r="AM803" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="AN803" t="s">
         <v>1090</v>
@@ -34598,7 +34598,7 @@
         <v>1028</v>
       </c>
       <c r="AM895" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AN895" s="5" t="s">
         <v>1091</v>
@@ -34906,7 +34906,7 @@
         <v>1078</v>
       </c>
       <c r="AM905" s="5" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="AN905" t="s">
         <v>1090</v>
@@ -36422,7 +36422,7 @@
         <v>1078</v>
       </c>
       <c r="AM953" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="AN953" t="s">
         <v>1089</v>
@@ -37261,7 +37261,7 @@
         <v>1078</v>
       </c>
       <c r="AM974" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="AN974" t="s">
         <v>1092</v>
@@ -37317,7 +37317,7 @@
         <v>1078</v>
       </c>
       <c r="AM975" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="AN975" t="s">
         <v>1092</v>

--- a/code/eyeTrackingParams.xlsx
+++ b/code/eyeTrackingParams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aguirre/Documents/MATLAB/projects/eyeTrackTOMEAnalysis/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AEA352-8766-534A-8283-93588AACDA3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6199A3-B795-4842-AB10-4C121B966365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1300" yWindow="460" windowWidth="23560" windowHeight="16360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4529,10 +4529,10 @@
   <dimension ref="A1:AQ979"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="AK15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="AK65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AM32" sqref="AM32"/>
+      <selection pane="bottomRight" activeCell="AN74" sqref="AN74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/code/eyeTrackingParams.xlsx
+++ b/code/eyeTrackingParams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aguirre/Documents/MATLAB/projects/eyeTrackTOMEAnalysis/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6199A3-B795-4842-AB10-4C121B966365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8998D8-6BFE-334F-AD5D-46BC1FE93265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1300" yWindow="460" windowWidth="23560" windowHeight="16360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4529,10 +4529,10 @@
   <dimension ref="A1:AQ979"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="AK65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="AK849" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AN74" sqref="AN74"/>
+      <selection pane="bottomRight" activeCell="AM864" sqref="AM864"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -33278,7 +33278,7 @@
         <v>1078</v>
       </c>
       <c r="AN861" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="AO861" t="s">
         <v>1058</v>
@@ -33430,7 +33430,7 @@
         <v>1078</v>
       </c>
       <c r="AN865" s="5" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="AO865" t="s">
         <v>1058</v>
@@ -33468,7 +33468,7 @@
         <v>1078</v>
       </c>
       <c r="AN866" s="5" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="AO866" t="s">
         <v>1058</v>

--- a/code/eyeTrackingParams.xlsx
+++ b/code/eyeTrackingParams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aguirre/Documents/MATLAB/projects/eyeTrackTOMEAnalysis/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C02600-3671-254B-912F-84FEB76545DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF680EF-A8D9-8D49-9600-EAAD7A8E6868}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="460" windowWidth="23560" windowHeight="16360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1300" yWindow="460" windowWidth="20480" windowHeight="16400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eyeTrackingParams" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9872" uniqueCount="1319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9874" uniqueCount="1321">
   <si>
     <t>projectSubfolder</t>
   </si>
@@ -3987,6 +3987,12 @@
   </si>
   <si>
     <t>[-50,-40,0,1.0]</t>
+  </si>
+  <si>
+    <t>[190, 4433, 6016, 8052, 3116, 1043, 11239, 8459, 18569, 10082, 5736, 17712, 15517, 13053, 16975, 8672, 20494, 6570, 8720, 6506, 6340]</t>
+  </si>
+  <si>
+    <t>[399, 14251, 14927, 11684, 18776, 12762, 10711,  7343,  7007, 20598, 18147,  8631,  3789,  5350,  2777, 13778, 14380]</t>
   </si>
 </sst>
 </file>
@@ -4526,10 +4532,10 @@
   <dimension ref="A1:AQ979"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="T213" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="AI516" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X17" sqref="X17"/>
+      <selection pane="bottomRight" activeCell="AJ540" sqref="AJ540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -22122,6 +22128,9 @@
       <c r="X537" s="5" t="s">
         <v>1071</v>
       </c>
+      <c r="AJ537" s="5" t="s">
+        <v>1319</v>
+      </c>
       <c r="AM537" s="5" t="s">
         <v>1265</v>
       </c>
@@ -22182,6 +22191,9 @@
       </c>
       <c r="X539" s="5" t="s">
         <v>1071</v>
+      </c>
+      <c r="AJ539" s="5" t="s">
+        <v>1320</v>
       </c>
       <c r="AN539" s="5" t="s">
         <v>1085</v>

--- a/code/eyeTrackingParams.xlsx
+++ b/code/eyeTrackingParams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aguirre/Documents/MATLAB/projects/eyeTrackTOMEAnalysis/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF680EF-A8D9-8D49-9600-EAAD7A8E6868}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB01E4C-D385-CD4B-9861-286091D64AD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1300" yWindow="460" windowWidth="20480" windowHeight="16400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3962,9 +3962,6 @@
     <t>[ 0; pi]</t>
   </si>
   <si>
-    <t>[[-1.50; -0.72]</t>
-  </si>
-  <si>
     <t>[-3.00; 0.03]</t>
   </si>
   <si>
@@ -3993,6 +3990,9 @@
   </si>
   <si>
     <t>[399, 14251, 14927, 11684, 18776, 12762, 10711,  7343,  7007, 20598, 18147,  8631,  3789,  5350,  2777, 13778, 14380]</t>
+  </si>
+  <si>
+    <t>[-1.50; -0.72]</t>
   </si>
 </sst>
 </file>
@@ -4532,10 +4532,10 @@
   <dimension ref="A1:AQ979"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="AI516" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="AJ549" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AJ540" sqref="AJ540"/>
+      <selection pane="bottomRight" activeCell="AM568" sqref="AM568"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4774,7 +4774,7 @@
         <v>670</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="X4" s="5" t="s">
         <v>692</v>
@@ -4819,7 +4819,7 @@
         <v>670</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="X5" s="5" t="s">
         <v>692</v>
@@ -4864,7 +4864,7 @@
         <v>670</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="X6" s="5" t="s">
         <v>692</v>
@@ -4909,7 +4909,7 @@
         <v>670</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="X7" s="5" t="s">
         <v>692</v>
@@ -5014,10 +5014,10 @@
         <v>2</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN11" s="4"/>
     </row>
@@ -5062,10 +5062,10 @@
         <v>2</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN12" s="4"/>
       <c r="AP12" s="5">
@@ -5113,7 +5113,7 @@
         <v>2</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="X13" s="5" t="s">
         <v>693</v>
@@ -5161,10 +5161,10 @@
         <v>2</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="AN14" s="4"/>
     </row>
@@ -5257,10 +5257,10 @@
         <v>690</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN18" s="4"/>
     </row>
@@ -5287,10 +5287,10 @@
         <v>690</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN19" s="4"/>
     </row>
@@ -5317,10 +5317,10 @@
         <v>690</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="AN20" s="4"/>
       <c r="AP20" s="5">
@@ -5350,10 +5350,10 @@
         <v>690</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="AN21" s="4"/>
       <c r="AP21" s="5">
@@ -5444,7 +5444,7 @@
         <v>670</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X25" s="5" t="s">
         <v>732</v>
@@ -5494,10 +5494,10 @@
         <v>670</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="AN26" s="5" t="s">
         <v>1090</v>
@@ -5628,10 +5628,10 @@
         <v>670</v>
       </c>
       <c r="W31" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X31" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN31" s="5" t="s">
         <v>95</v>
@@ -5678,13 +5678,13 @@
         <v>670</v>
       </c>
       <c r="W32" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X32" s="5" t="s">
         <v>733</v>
       </c>
       <c r="AM32" s="5" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="AN32" s="5" t="s">
         <v>95</v>
@@ -5751,10 +5751,10 @@
         <v>690</v>
       </c>
       <c r="W35" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X35" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AP35" s="5">
         <v>26</v>
@@ -5789,10 +5789,10 @@
         <v>690</v>
       </c>
       <c r="W36" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X36" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="37" spans="1:43">
@@ -5824,10 +5824,10 @@
         <v>690</v>
       </c>
       <c r="W37" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X37" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="38" spans="1:43">
@@ -5859,10 +5859,10 @@
         <v>690</v>
       </c>
       <c r="W38" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X38" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="39" spans="1:43">
@@ -5993,10 +5993,10 @@
         <v>690</v>
       </c>
       <c r="W43" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X43" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AJ43" s="5" t="s">
         <v>1224</v>
@@ -6049,10 +6049,10 @@
         <v>690</v>
       </c>
       <c r="W44" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X44" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AJ44" s="5" t="s">
         <v>1225</v>
@@ -6105,10 +6105,10 @@
         <v>690</v>
       </c>
       <c r="W45" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X45" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AJ45" s="5" t="s">
         <v>1226</v>
@@ -6164,10 +6164,10 @@
         <v>690</v>
       </c>
       <c r="W46" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X46" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AJ46" s="5" t="s">
         <v>1227</v>
@@ -6426,10 +6426,10 @@
         <v>690</v>
       </c>
       <c r="W56" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X56" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AC56" t="s">
         <v>1093</v>
@@ -6473,10 +6473,10 @@
         <v>690</v>
       </c>
       <c r="W57" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X57" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AC57" t="s">
         <v>1093</v>
@@ -6520,10 +6520,10 @@
         <v>690</v>
       </c>
       <c r="W58" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X58" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AC58" t="s">
         <v>1093</v>
@@ -6567,10 +6567,10 @@
         <v>690</v>
       </c>
       <c r="W59" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X59" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AC59" t="s">
         <v>1093</v>
@@ -6719,10 +6719,10 @@
         <v>2</v>
       </c>
       <c r="W65" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X65" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN65" s="5" t="s">
         <v>95</v>
@@ -6772,10 +6772,10 @@
         <v>2</v>
       </c>
       <c r="W66" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X66" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN66" s="5" t="s">
         <v>95</v>
@@ -6825,10 +6825,10 @@
         <v>2</v>
       </c>
       <c r="W67" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X67" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN67" s="5" t="s">
         <v>95</v>
@@ -6878,10 +6878,10 @@
         <v>2</v>
       </c>
       <c r="W68" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X68" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN68" s="5" t="s">
         <v>95</v>
@@ -7020,10 +7020,10 @@
         <v>670</v>
       </c>
       <c r="W74" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X74" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN74" s="5" t="s">
         <v>1089</v>
@@ -7067,10 +7067,10 @@
         <v>670</v>
       </c>
       <c r="W75" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X75" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AM75" t="s">
         <v>1253</v>
@@ -7117,10 +7117,10 @@
         <v>670</v>
       </c>
       <c r="W76" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X76" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN76" s="5" t="s">
         <v>1089</v>
@@ -7164,10 +7164,10 @@
         <v>670</v>
       </c>
       <c r="W77" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X77" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN77" s="5" t="s">
         <v>1089</v>
@@ -7295,10 +7295,10 @@
         <v>690</v>
       </c>
       <c r="W82" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X82" s="5" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="AN82" s="5" t="s">
         <v>95</v>
@@ -7336,10 +7336,10 @@
         <v>690</v>
       </c>
       <c r="W83" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X83" s="5" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="AN83" s="5" t="s">
         <v>95</v>
@@ -7377,10 +7377,10 @@
         <v>690</v>
       </c>
       <c r="W84" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X84" s="5" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="AN84" s="5" t="s">
         <v>95</v>
@@ -7576,10 +7576,10 @@
         <v>690</v>
       </c>
       <c r="W94" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X94" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN94" s="5" t="s">
         <v>95</v>
@@ -7614,10 +7614,10 @@
         <v>690</v>
       </c>
       <c r="W95" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X95" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN95" s="5" t="s">
         <v>95</v>
@@ -7652,10 +7652,10 @@
         <v>690</v>
       </c>
       <c r="W96" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X96" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN96" s="5" t="s">
         <v>95</v>
@@ -7690,10 +7690,10 @@
         <v>690</v>
       </c>
       <c r="W97" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X97" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN97" s="5" t="s">
         <v>95</v>
@@ -7829,10 +7829,10 @@
         <v>690</v>
       </c>
       <c r="W103" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X103" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN103" s="5" t="s">
         <v>95</v>
@@ -7870,10 +7870,10 @@
         <v>690</v>
       </c>
       <c r="W104" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X104" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN104" s="5" t="s">
         <v>95</v>
@@ -7911,10 +7911,10 @@
         <v>690</v>
       </c>
       <c r="W105" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X105" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN105" s="5" t="s">
         <v>95</v>
@@ -7952,10 +7952,10 @@
         <v>690</v>
       </c>
       <c r="W106" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X106" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN106" s="5" t="s">
         <v>95</v>
@@ -8204,10 +8204,10 @@
         <v>670</v>
       </c>
       <c r="W116" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X116" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN116" s="5" t="s">
         <v>95</v>
@@ -8251,10 +8251,10 @@
         <v>670</v>
       </c>
       <c r="W117" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X117" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN117" s="5" t="s">
         <v>95</v>
@@ -8298,10 +8298,10 @@
         <v>670</v>
       </c>
       <c r="W118" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X118" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN118" s="5" t="s">
         <v>95</v>
@@ -8345,10 +8345,10 @@
         <v>670</v>
       </c>
       <c r="W119" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X119" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN119" s="5" t="s">
         <v>95</v>
@@ -8521,10 +8521,10 @@
         <v>670</v>
       </c>
       <c r="W127" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X127" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN127" s="5" t="s">
         <v>95</v>
@@ -8571,10 +8571,10 @@
         <v>670</v>
       </c>
       <c r="W128" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X128" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN128" s="5" t="s">
         <v>95</v>
@@ -8621,10 +8621,10 @@
         <v>670</v>
       </c>
       <c r="W129" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X129" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN129" s="5" t="s">
         <v>95</v>
@@ -8671,10 +8671,10 @@
         <v>670</v>
       </c>
       <c r="W130" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X130" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN130" s="5" t="s">
         <v>95</v>
@@ -8848,10 +8848,10 @@
         <v>690</v>
       </c>
       <c r="W137" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X137" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AJ137" t="s">
         <v>1275</v>
@@ -8904,10 +8904,10 @@
         <v>690</v>
       </c>
       <c r="W138" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X138" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AJ138" t="s">
         <v>1228</v>
@@ -8960,10 +8960,10 @@
         <v>690</v>
       </c>
       <c r="W139" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X139" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AJ139" t="s">
         <v>1229</v>
@@ -9016,10 +9016,10 @@
         <v>690</v>
       </c>
       <c r="W140" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X140" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AJ140" t="s">
         <v>1230</v>
@@ -9173,10 +9173,10 @@
         <v>749</v>
       </c>
       <c r="W146" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X146" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN146" s="5" t="s">
         <v>95</v>
@@ -9223,10 +9223,10 @@
         <v>749</v>
       </c>
       <c r="W147" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X147" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN147" s="5" t="s">
         <v>95</v>
@@ -9273,10 +9273,10 @@
         <v>749</v>
       </c>
       <c r="W148" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X148" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN148" s="5" t="s">
         <v>95</v>
@@ -9323,10 +9323,10 @@
         <v>749</v>
       </c>
       <c r="W149" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X149" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN149" s="5" t="s">
         <v>95</v>
@@ -9462,10 +9462,10 @@
         <v>670</v>
       </c>
       <c r="W155" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X155" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AJ155" t="s">
         <v>1231</v>
@@ -9512,10 +9512,10 @@
         <v>670</v>
       </c>
       <c r="W156" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X156" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AJ156" t="s">
         <v>1232</v>
@@ -9562,10 +9562,10 @@
         <v>670</v>
       </c>
       <c r="W157" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X157" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AJ157" t="s">
         <v>1233</v>
@@ -9612,10 +9612,10 @@
         <v>670</v>
       </c>
       <c r="W158" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X158" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AJ158" t="s">
         <v>1276</v>
@@ -9792,10 +9792,10 @@
         <v>2</v>
       </c>
       <c r="W165" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X165" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN165" s="5" t="s">
         <v>95</v>
@@ -9851,10 +9851,10 @@
         <v>2</v>
       </c>
       <c r="W166" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X166" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN166" s="5" t="s">
         <v>95</v>
@@ -9910,10 +9910,10 @@
         <v>2</v>
       </c>
       <c r="W167" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X167" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN167" s="5" t="s">
         <v>95</v>
@@ -9969,10 +9969,10 @@
         <v>2</v>
       </c>
       <c r="W168" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X168" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN168" s="5" t="s">
         <v>95</v>
@@ -10065,10 +10065,10 @@
         <v>749</v>
       </c>
       <c r="W172" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X172" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN172" s="5" t="s">
         <v>95</v>
@@ -10112,10 +10112,10 @@
         <v>749</v>
       </c>
       <c r="W173" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X173" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN173" s="5" t="s">
         <v>95</v>
@@ -10159,10 +10159,10 @@
         <v>749</v>
       </c>
       <c r="W174" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X174" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AM174" t="s">
         <v>1285</v>
@@ -10209,10 +10209,10 @@
         <v>749</v>
       </c>
       <c r="W175" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X175" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AM175" t="s">
         <v>1286</v>
@@ -10368,10 +10368,10 @@
         <v>690</v>
       </c>
       <c r="W182" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X182" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN182" s="5" t="s">
         <v>95</v>
@@ -10418,10 +10418,10 @@
         <v>690</v>
       </c>
       <c r="W183" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X183" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN183" s="5" t="s">
         <v>95</v>
@@ -10468,10 +10468,10 @@
         <v>690</v>
       </c>
       <c r="W184" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X184" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN184" s="5" t="s">
         <v>95</v>
@@ -10518,10 +10518,10 @@
         <v>690</v>
       </c>
       <c r="W185" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X185" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN185" s="5" t="s">
         <v>95</v>
@@ -10617,10 +10617,10 @@
         <v>670</v>
       </c>
       <c r="W189" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X189" s="5" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="AN189" s="5" t="s">
         <v>95</v>
@@ -10676,10 +10676,10 @@
         <v>670</v>
       </c>
       <c r="W190" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X190" s="5" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="AN190" s="5" t="s">
         <v>95</v>
@@ -10735,10 +10735,10 @@
         <v>670</v>
       </c>
       <c r="W191" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X191" s="5" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="AN191" s="5" t="s">
         <v>95</v>
@@ -10794,10 +10794,10 @@
         <v>670</v>
       </c>
       <c r="W192" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X192" s="5" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="AM192" t="s">
         <v>1287</v>
@@ -10875,10 +10875,10 @@
         <v>690</v>
       </c>
       <c r="W196" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X196" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN196" s="5" t="s">
         <v>95</v>
@@ -10910,10 +10910,10 @@
         <v>690</v>
       </c>
       <c r="W197" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X197" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN197" s="5" t="s">
         <v>95</v>
@@ -10945,10 +10945,10 @@
         <v>690</v>
       </c>
       <c r="W198" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X198" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN198" s="5" t="s">
         <v>95</v>
@@ -10980,10 +10980,10 @@
         <v>690</v>
       </c>
       <c r="W199" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X199" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN199" s="5" t="s">
         <v>95</v>
@@ -11076,10 +11076,10 @@
         <v>670</v>
       </c>
       <c r="W203" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X203" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN203" s="5" t="s">
         <v>95</v>
@@ -11129,10 +11129,10 @@
         <v>670</v>
       </c>
       <c r="W204" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X204" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN204" s="5" t="s">
         <v>95</v>
@@ -11182,10 +11182,10 @@
         <v>670</v>
       </c>
       <c r="W205" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X205" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN205" s="5" t="s">
         <v>95</v>
@@ -11235,10 +11235,10 @@
         <v>670</v>
       </c>
       <c r="W206" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X206" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN206" s="5" t="s">
         <v>95</v>
@@ -11314,10 +11314,10 @@
         <v>759</v>
       </c>
       <c r="W210" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X210" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN210" s="5" t="s">
         <v>95</v>
@@ -11352,10 +11352,10 @@
         <v>759</v>
       </c>
       <c r="W211" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X211" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AM211" s="5" t="s">
         <v>1254</v>
@@ -11393,10 +11393,10 @@
         <v>759</v>
       </c>
       <c r="W212" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X212" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN212" s="5" t="s">
         <v>95</v>
@@ -11431,10 +11431,10 @@
         <v>759</v>
       </c>
       <c r="W213" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X213" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN213" s="5" t="s">
         <v>95</v>
@@ -11540,10 +11540,10 @@
         <v>690</v>
       </c>
       <c r="W217" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X217" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="Y217" s="24" t="s">
         <v>738</v>
@@ -11602,10 +11602,10 @@
         <v>690</v>
       </c>
       <c r="W218" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X218" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="Y218" s="24" t="s">
         <v>738</v>
@@ -11664,10 +11664,10 @@
         <v>690</v>
       </c>
       <c r="W219" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X219" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="Y219" s="24" t="s">
         <v>738</v>
@@ -11726,10 +11726,10 @@
         <v>690</v>
       </c>
       <c r="W220" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X220" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="Y220" s="24" t="s">
         <v>738</v>
@@ -11825,10 +11825,10 @@
         <v>690</v>
       </c>
       <c r="W224" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X224" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN224" s="5" t="s">
         <v>95</v>
@@ -11863,10 +11863,10 @@
         <v>690</v>
       </c>
       <c r="W225" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X225" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN225" s="5" t="s">
         <v>95</v>
@@ -11901,10 +11901,10 @@
         <v>690</v>
       </c>
       <c r="W226" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X226" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AM226" s="5" t="s">
         <v>1255</v>
@@ -11942,10 +11942,10 @@
         <v>756</v>
       </c>
       <c r="W227" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X227" s="5" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="AN227" s="5" t="s">
         <v>95</v>
@@ -12094,10 +12094,10 @@
         <v>690</v>
       </c>
       <c r="W233" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X233" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AM233" s="5" t="s">
         <v>1256</v>
@@ -12150,10 +12150,10 @@
         <v>690</v>
       </c>
       <c r="W234" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X234" s="5" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="AN234" s="5" t="s">
         <v>95</v>
@@ -12203,10 +12203,10 @@
         <v>690</v>
       </c>
       <c r="W235" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X235" s="5" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="AN235" s="5" t="s">
         <v>95</v>
@@ -12256,10 +12256,10 @@
         <v>690</v>
       </c>
       <c r="W236" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X236" s="5" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="AM236" t="s">
         <v>1257</v>
@@ -12393,10 +12393,10 @@
         <v>690</v>
       </c>
       <c r="W241" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X241" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN241" s="5" t="s">
         <v>95</v>
@@ -12446,10 +12446,10 @@
         <v>690</v>
       </c>
       <c r="W242" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X242" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN242" s="5" t="s">
         <v>95</v>
@@ -12499,10 +12499,10 @@
         <v>690</v>
       </c>
       <c r="W243" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X243" s="5" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="AN243" s="5" t="s">
         <v>95</v>
@@ -12552,10 +12552,10 @@
         <v>690</v>
       </c>
       <c r="W244" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X244" s="5" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="AN244" s="5" t="s">
         <v>95</v>
@@ -12682,10 +12682,10 @@
         <v>690</v>
       </c>
       <c r="W250" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X250" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN250" s="5" t="s">
         <v>95</v>
@@ -12717,10 +12717,10 @@
         <v>690</v>
       </c>
       <c r="W251" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X251" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN251" s="5" t="s">
         <v>95</v>
@@ -12752,10 +12752,10 @@
         <v>690</v>
       </c>
       <c r="W252" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X252" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN252" s="5" t="s">
         <v>95</v>
@@ -12787,10 +12787,10 @@
         <v>690</v>
       </c>
       <c r="W253" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X253" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN253" s="5" t="s">
         <v>95</v>
@@ -12863,10 +12863,10 @@
         <v>670</v>
       </c>
       <c r="W256" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X256" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AJ256" t="s">
         <v>1238</v>
@@ -12916,10 +12916,10 @@
         <v>670</v>
       </c>
       <c r="W257" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X257" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AJ257" t="s">
         <v>1239</v>
@@ -12969,10 +12969,10 @@
         <v>670</v>
       </c>
       <c r="W258" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X258" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AJ258" t="s">
         <v>1240</v>
@@ -13022,10 +13022,10 @@
         <v>670</v>
       </c>
       <c r="W259" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X259" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AJ259" t="s">
         <v>1241</v>
@@ -13157,10 +13157,10 @@
         <v>690</v>
       </c>
       <c r="W264" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X264" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN264" s="5" t="s">
         <v>95</v>
@@ -13198,10 +13198,10 @@
         <v>690</v>
       </c>
       <c r="W265" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X265" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN265" s="5" t="s">
         <v>95</v>
@@ -13239,10 +13239,10 @@
         <v>690</v>
       </c>
       <c r="W266" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X266" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN266" s="5" t="s">
         <v>95</v>
@@ -13280,10 +13280,10 @@
         <v>690</v>
       </c>
       <c r="W267" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X267" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN267" s="5" t="s">
         <v>95</v>
@@ -13409,10 +13409,10 @@
         <v>670</v>
       </c>
       <c r="W272" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X272" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN272" s="5" t="s">
         <v>95</v>
@@ -13456,10 +13456,10 @@
         <v>670</v>
       </c>
       <c r="W273" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X273" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN273" s="5" t="s">
         <v>95</v>
@@ -13503,10 +13503,10 @@
         <v>670</v>
       </c>
       <c r="W274" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X274" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN274" s="5" t="s">
         <v>95</v>
@@ -13550,10 +13550,10 @@
         <v>670</v>
       </c>
       <c r="W275" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X275" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN275" s="5" t="s">
         <v>95</v>
@@ -13704,10 +13704,10 @@
         <v>670</v>
       </c>
       <c r="W281" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X281" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN281" s="5" t="s">
         <v>95</v>
@@ -13754,10 +13754,10 @@
         <v>670</v>
       </c>
       <c r="W282" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X282" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN282" s="5" t="s">
         <v>95</v>
@@ -13801,10 +13801,10 @@
         <v>670</v>
       </c>
       <c r="W283" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X283" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AM283" t="s">
         <v>1292</v>
@@ -13854,10 +13854,10 @@
         <v>670</v>
       </c>
       <c r="W284" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X284" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN284" s="5" t="s">
         <v>95</v>
@@ -13988,10 +13988,10 @@
         <v>690</v>
       </c>
       <c r="W289" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X289" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="Y289" s="24" t="s">
         <v>738</v>
@@ -14050,10 +14050,10 @@
         <v>690</v>
       </c>
       <c r="W290" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X290" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="Y290" s="24" t="s">
         <v>738</v>
@@ -14112,10 +14112,10 @@
         <v>690</v>
       </c>
       <c r="W291" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X291" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="Y291" s="24" t="s">
         <v>738</v>
@@ -14177,10 +14177,10 @@
         <v>690</v>
       </c>
       <c r="W292" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X292" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="Y292" s="24" t="s">
         <v>738</v>
@@ -14317,10 +14317,10 @@
         <v>670</v>
       </c>
       <c r="W297" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X297" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN297" s="5" t="s">
         <v>95</v>
@@ -14364,10 +14364,10 @@
         <v>670</v>
       </c>
       <c r="W298" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X298" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN298" s="5" t="s">
         <v>95</v>
@@ -14411,10 +14411,10 @@
         <v>670</v>
       </c>
       <c r="W299" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X299" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN299" s="5" t="s">
         <v>95</v>
@@ -14458,10 +14458,10 @@
         <v>670</v>
       </c>
       <c r="W300" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X300" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN300" s="5" t="s">
         <v>95</v>
@@ -14586,10 +14586,10 @@
         <v>670</v>
       </c>
       <c r="W305" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X305" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN305" s="5" t="s">
         <v>95</v>
@@ -14633,10 +14633,10 @@
         <v>670</v>
       </c>
       <c r="W306" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X306" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN306" s="5" t="s">
         <v>95</v>
@@ -14680,10 +14680,10 @@
         <v>670</v>
       </c>
       <c r="W307" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X307" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN307" s="5" t="s">
         <v>95</v>
@@ -14727,10 +14727,10 @@
         <v>670</v>
       </c>
       <c r="W308" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X308" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN308" s="5" t="s">
         <v>95</v>
@@ -14826,7 +14826,7 @@
         <v>670</v>
       </c>
       <c r="W312" s="5" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="X312" s="5" t="s">
         <v>733</v>
@@ -14873,7 +14873,7 @@
         <v>670</v>
       </c>
       <c r="W313" s="5" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="X313" s="5" t="s">
         <v>733</v>
@@ -14926,7 +14926,7 @@
         <v>670</v>
       </c>
       <c r="W314" s="5" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="X314" s="5" t="s">
         <v>733</v>
@@ -14973,7 +14973,7 @@
         <v>670</v>
       </c>
       <c r="W315" s="5" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="X315" s="5" t="s">
         <v>733</v>
@@ -15111,10 +15111,10 @@
         <v>670</v>
       </c>
       <c r="W320" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X320" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN320" s="5" t="s">
         <v>95</v>
@@ -15164,10 +15164,10 @@
         <v>670</v>
       </c>
       <c r="W321" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X321" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN321" s="5" t="s">
         <v>95</v>
@@ -15217,10 +15217,10 @@
         <v>670</v>
       </c>
       <c r="W322" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X322" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN322" s="5" t="s">
         <v>95</v>
@@ -15270,10 +15270,10 @@
         <v>670</v>
       </c>
       <c r="W323" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X323" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN323" s="5" t="s">
         <v>95</v>
@@ -15373,10 +15373,10 @@
         <v>690</v>
       </c>
       <c r="W327" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X327" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN327" s="5" t="s">
         <v>95</v>
@@ -15414,10 +15414,10 @@
         <v>690</v>
       </c>
       <c r="W328" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X328" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN328" s="5" t="s">
         <v>95</v>
@@ -15455,10 +15455,10 @@
         <v>690</v>
       </c>
       <c r="W329" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X329" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN329" s="5" t="s">
         <v>95</v>
@@ -15496,10 +15496,10 @@
         <v>690</v>
       </c>
       <c r="W330" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X330" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN330" s="5" t="s">
         <v>95</v>
@@ -15596,10 +15596,10 @@
         <v>690</v>
       </c>
       <c r="W334" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X334" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AM334" t="s">
         <v>1298</v>
@@ -15646,10 +15646,10 @@
         <v>690</v>
       </c>
       <c r="W335" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X335" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AM335" t="s">
         <v>1300</v>
@@ -15696,10 +15696,10 @@
         <v>690</v>
       </c>
       <c r="W336" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X336" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AM336" t="s">
         <v>1299</v>
@@ -15746,10 +15746,10 @@
         <v>690</v>
       </c>
       <c r="W337" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X337" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN337" s="5" t="s">
         <v>95</v>
@@ -15854,10 +15854,10 @@
         <v>445</v>
       </c>
       <c r="W341" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X341" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AM341" t="s">
         <v>1301</v>
@@ -15895,10 +15895,10 @@
         <v>445</v>
       </c>
       <c r="W342" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X342" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN342" s="5" t="s">
         <v>95</v>
@@ -15933,10 +15933,10 @@
         <v>445</v>
       </c>
       <c r="W343" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X343" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN343" s="5" t="s">
         <v>95</v>
@@ -15971,10 +15971,10 @@
         <v>445</v>
       </c>
       <c r="W344" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X344" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN344" s="5" t="s">
         <v>95</v>
@@ -16070,10 +16070,10 @@
         <v>362</v>
       </c>
       <c r="W348" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X348" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AM348" t="s">
         <v>1304</v>
@@ -16111,10 +16111,10 @@
         <v>362</v>
       </c>
       <c r="W349" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X349" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN349" s="5" t="s">
         <v>95</v>
@@ -16149,10 +16149,10 @@
         <v>362</v>
       </c>
       <c r="W350" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X350" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AN350" s="5" t="s">
         <v>95</v>
@@ -16187,10 +16187,10 @@
         <v>362</v>
       </c>
       <c r="W351" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="X351" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AM351" t="s">
         <v>1305</v>
@@ -16305,7 +16305,7 @@
         <v>670</v>
       </c>
       <c r="W356" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X356" s="5" t="s">
         <v>1071</v>
@@ -16347,7 +16347,7 @@
         <v>670</v>
       </c>
       <c r="W357" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X357" s="5" t="s">
         <v>1071</v>
@@ -16389,7 +16389,7 @@
         <v>670</v>
       </c>
       <c r="W358" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X358" s="5" t="s">
         <v>1071</v>
@@ -16431,7 +16431,7 @@
         <v>670</v>
       </c>
       <c r="W359" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X359" s="5" t="s">
         <v>1071</v>
@@ -16473,7 +16473,7 @@
         <v>670</v>
       </c>
       <c r="W360" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X360" s="5" t="s">
         <v>1071</v>
@@ -16518,7 +16518,7 @@
         <v>670</v>
       </c>
       <c r="W361" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X361" s="5" t="s">
         <v>1071</v>
@@ -16563,7 +16563,7 @@
         <v>670</v>
       </c>
       <c r="W362" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X362" s="5" t="s">
         <v>1071</v>
@@ -16608,7 +16608,7 @@
         <v>670</v>
       </c>
       <c r="W363" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X363" s="5" t="s">
         <v>1071</v>
@@ -16653,7 +16653,7 @@
         <v>670</v>
       </c>
       <c r="W364" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X364" s="5" t="s">
         <v>1071</v>
@@ -16698,7 +16698,7 @@
         <v>670</v>
       </c>
       <c r="W365" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X365" s="5" t="s">
         <v>1071</v>
@@ -16762,7 +16762,7 @@
         <v>88</v>
       </c>
       <c r="W368" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X368" s="5" t="s">
         <v>1071</v>
@@ -16794,7 +16794,7 @@
         <v>88</v>
       </c>
       <c r="W369" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X369" s="5" t="s">
         <v>1071</v>
@@ -16826,7 +16826,7 @@
         <v>88</v>
       </c>
       <c r="W370" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X370" s="5" t="s">
         <v>1071</v>
@@ -16864,7 +16864,7 @@
         <v>88</v>
       </c>
       <c r="W371" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X371" s="5" t="s">
         <v>1071</v>
@@ -16896,7 +16896,7 @@
         <v>88</v>
       </c>
       <c r="W372" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X372" s="5" t="s">
         <v>1071</v>
@@ -16928,7 +16928,7 @@
         <v>88</v>
       </c>
       <c r="W373" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X373" s="5" t="s">
         <v>1071</v>
@@ -16960,7 +16960,7 @@
         <v>88</v>
       </c>
       <c r="W374" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X374" s="5" t="s">
         <v>1071</v>
@@ -16995,7 +16995,7 @@
         <v>88</v>
       </c>
       <c r="W375" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X375" s="5" t="s">
         <v>1071</v>
@@ -17027,7 +17027,7 @@
         <v>88</v>
       </c>
       <c r="W376" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X376" s="5" t="s">
         <v>1071</v>
@@ -17059,7 +17059,7 @@
         <v>88</v>
       </c>
       <c r="W377" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X377" s="5" t="s">
         <v>1071</v>
@@ -17119,7 +17119,7 @@
         <v>840</v>
       </c>
       <c r="W380" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X380" s="5" t="s">
         <v>1071</v>
@@ -17140,7 +17140,7 @@
         <v>839</v>
       </c>
       <c r="W381" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X381" s="5" t="s">
         <v>1071</v>
@@ -17161,7 +17161,7 @@
         <v>836</v>
       </c>
       <c r="W382" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X382" s="5" t="s">
         <v>1071</v>
@@ -17182,7 +17182,7 @@
         <v>837</v>
       </c>
       <c r="W383" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X383" s="5" t="s">
         <v>1071</v>
@@ -17203,7 +17203,7 @@
         <v>838</v>
       </c>
       <c r="W384" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X384" s="5" t="s">
         <v>1071</v>
@@ -17224,7 +17224,7 @@
         <v>845</v>
       </c>
       <c r="W385" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X385" s="5" t="s">
         <v>1071</v>
@@ -17245,7 +17245,7 @@
         <v>833</v>
       </c>
       <c r="W386" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X386" s="5" t="s">
         <v>1071</v>
@@ -17266,7 +17266,7 @@
         <v>913</v>
       </c>
       <c r="W387" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X387" s="5" t="s">
         <v>1071</v>
@@ -17287,7 +17287,7 @@
         <v>912</v>
       </c>
       <c r="W388" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X388" s="5" t="s">
         <v>1071</v>
@@ -17308,7 +17308,7 @@
         <v>834</v>
       </c>
       <c r="W389" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X389" s="5" t="s">
         <v>1071</v>
@@ -17486,7 +17486,7 @@
         <v>170</v>
       </c>
       <c r="W396" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X396" s="5" t="s">
         <v>1071</v>
@@ -17527,7 +17527,7 @@
         <v>170</v>
       </c>
       <c r="W397" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X397" s="5" t="s">
         <v>1071</v>
@@ -17568,7 +17568,7 @@
         <v>170</v>
       </c>
       <c r="W398" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X398" s="5" t="s">
         <v>1071</v>
@@ -17612,7 +17612,7 @@
         <v>170</v>
       </c>
       <c r="W399" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X399" s="5" t="s">
         <v>1071</v>
@@ -17650,7 +17650,7 @@
         <v>58</v>
       </c>
       <c r="W400" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X400" s="5" t="s">
         <v>1071</v>
@@ -17688,7 +17688,7 @@
         <v>58</v>
       </c>
       <c r="W401" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X401" s="5" t="s">
         <v>1071</v>
@@ -17729,7 +17729,7 @@
         <v>170</v>
       </c>
       <c r="W402" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X402" s="5" t="s">
         <v>1071</v>
@@ -17773,7 +17773,7 @@
         <v>58</v>
       </c>
       <c r="W403" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X403" s="5" t="s">
         <v>1071</v>
@@ -17814,7 +17814,7 @@
         <v>170</v>
       </c>
       <c r="W404" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X404" s="5" t="s">
         <v>1071</v>
@@ -17852,7 +17852,7 @@
         <v>58</v>
       </c>
       <c r="W405" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X405" s="5" t="s">
         <v>1071</v>
@@ -17924,7 +17924,7 @@
         <v>349</v>
       </c>
       <c r="W408" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X408" s="5" t="s">
         <v>1071</v>
@@ -17958,7 +17958,7 @@
         <v>92</v>
       </c>
       <c r="W409" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X409" s="5" t="s">
         <v>1071</v>
@@ -17989,7 +17989,7 @@
         <v>92</v>
       </c>
       <c r="W410" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X410" s="5" t="s">
         <v>1071</v>
@@ -18020,7 +18020,7 @@
         <v>92</v>
       </c>
       <c r="W411" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X411" s="5" t="s">
         <v>1071</v>
@@ -18051,7 +18051,7 @@
         <v>92</v>
       </c>
       <c r="W412" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X412" s="5" t="s">
         <v>1071</v>
@@ -18082,7 +18082,7 @@
         <v>92</v>
       </c>
       <c r="W413" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X413" s="5" t="s">
         <v>1071</v>
@@ -18113,7 +18113,7 @@
         <v>92</v>
       </c>
       <c r="W414" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X414" s="5" t="s">
         <v>1071</v>
@@ -18144,7 +18144,7 @@
         <v>92</v>
       </c>
       <c r="W415" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X415" s="5" t="s">
         <v>1071</v>
@@ -18175,7 +18175,7 @@
         <v>92</v>
       </c>
       <c r="W416" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X416" s="5" t="s">
         <v>1071</v>
@@ -18206,7 +18206,7 @@
         <v>92</v>
       </c>
       <c r="W417" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X417" s="5" t="s">
         <v>1071</v>
@@ -18423,7 +18423,7 @@
         <v>690</v>
       </c>
       <c r="W424" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X424" s="5" t="s">
         <v>1071</v>
@@ -18470,7 +18470,7 @@
         <v>690</v>
       </c>
       <c r="W425" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X425" s="5" t="s">
         <v>1071</v>
@@ -18520,7 +18520,7 @@
         <v>690</v>
       </c>
       <c r="W426" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X426" s="5" t="s">
         <v>1071</v>
@@ -18567,7 +18567,7 @@
         <v>690</v>
       </c>
       <c r="W427" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X427" s="5" t="s">
         <v>1071</v>
@@ -18614,7 +18614,7 @@
         <v>690</v>
       </c>
       <c r="W428" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X428" s="5" t="s">
         <v>1071</v>
@@ -18661,7 +18661,7 @@
         <v>690</v>
       </c>
       <c r="W429" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X429" s="5" t="s">
         <v>1071</v>
@@ -18708,7 +18708,7 @@
         <v>690</v>
       </c>
       <c r="W430" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X430" s="5" t="s">
         <v>1071</v>
@@ -18755,7 +18755,7 @@
         <v>690</v>
       </c>
       <c r="W431" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X431" s="5" t="s">
         <v>1071</v>
@@ -18802,7 +18802,7 @@
         <v>690</v>
       </c>
       <c r="W432" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X432" s="5" t="s">
         <v>1071</v>
@@ -18849,7 +18849,7 @@
         <v>690</v>
       </c>
       <c r="W433" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X433" s="5" t="s">
         <v>1071</v>
@@ -19043,7 +19043,7 @@
         <v>88</v>
       </c>
       <c r="W440" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X440" s="5" t="s">
         <v>1071</v>
@@ -19078,7 +19078,7 @@
         <v>88</v>
       </c>
       <c r="W441" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X441" s="5" t="s">
         <v>1071</v>
@@ -19113,7 +19113,7 @@
         <v>88</v>
       </c>
       <c r="W442" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X442" s="5" t="s">
         <v>1071</v>
@@ -19148,7 +19148,7 @@
         <v>88</v>
       </c>
       <c r="W443" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X443" s="5" t="s">
         <v>1071</v>
@@ -19183,7 +19183,7 @@
         <v>88</v>
       </c>
       <c r="W444" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X444" s="5" t="s">
         <v>1071</v>
@@ -19218,7 +19218,7 @@
         <v>88</v>
       </c>
       <c r="W445" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X445" s="5" t="s">
         <v>1071</v>
@@ -19253,7 +19253,7 @@
         <v>88</v>
       </c>
       <c r="W446" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X446" s="5" t="s">
         <v>1071</v>
@@ -19288,7 +19288,7 @@
         <v>88</v>
       </c>
       <c r="W447" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X447" s="5" t="s">
         <v>1071</v>
@@ -19323,7 +19323,7 @@
         <v>88</v>
       </c>
       <c r="W448" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X448" s="5" t="s">
         <v>1071</v>
@@ -19358,7 +19358,7 @@
         <v>88</v>
       </c>
       <c r="W449" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X449" s="5" t="s">
         <v>1071</v>
@@ -19567,7 +19567,7 @@
         <v>352</v>
       </c>
       <c r="W456" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X456" s="5" t="s">
         <v>1071</v>
@@ -19602,7 +19602,7 @@
         <v>58</v>
       </c>
       <c r="W457" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X457" s="5" t="s">
         <v>1071</v>
@@ -19640,7 +19640,7 @@
         <v>58</v>
       </c>
       <c r="W458" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X458" s="5" t="s">
         <v>1071</v>
@@ -19675,7 +19675,7 @@
         <v>58</v>
       </c>
       <c r="W459" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X459" s="5" t="s">
         <v>1071</v>
@@ -19710,7 +19710,7 @@
         <v>58</v>
       </c>
       <c r="W460" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X460" s="5" t="s">
         <v>1071</v>
@@ -19745,7 +19745,7 @@
         <v>58</v>
       </c>
       <c r="W461" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X461" s="5" t="s">
         <v>1071</v>
@@ -19783,7 +19783,7 @@
         <v>58</v>
       </c>
       <c r="W462" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X462" s="5" t="s">
         <v>1071</v>
@@ -19818,7 +19818,7 @@
         <v>58</v>
       </c>
       <c r="W463" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X463" s="5" t="s">
         <v>1071</v>
@@ -19853,7 +19853,7 @@
         <v>58</v>
       </c>
       <c r="W464" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X464" s="5" t="s">
         <v>1071</v>
@@ -19891,7 +19891,7 @@
         <v>58</v>
       </c>
       <c r="W465" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X465" s="5" t="s">
         <v>1071</v>
@@ -19999,7 +19999,7 @@
         <v>88</v>
       </c>
       <c r="W469" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X469" s="5" t="s">
         <v>1071</v>
@@ -20034,7 +20034,7 @@
         <v>88</v>
       </c>
       <c r="W470" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X470" s="5" t="s">
         <v>1071</v>
@@ -20069,7 +20069,7 @@
         <v>88</v>
       </c>
       <c r="W471" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X471" s="5" t="s">
         <v>1071</v>
@@ -20104,7 +20104,7 @@
         <v>88</v>
       </c>
       <c r="W472" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X472" s="5" t="s">
         <v>1071</v>
@@ -20139,7 +20139,7 @@
         <v>88</v>
       </c>
       <c r="W473" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X473" s="5" t="s">
         <v>1071</v>
@@ -20174,7 +20174,7 @@
         <v>88</v>
       </c>
       <c r="W474" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X474" s="5" t="s">
         <v>1071</v>
@@ -20209,7 +20209,7 @@
         <v>88</v>
       </c>
       <c r="W475" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X475" s="5" t="s">
         <v>1071</v>
@@ -20244,7 +20244,7 @@
         <v>88</v>
       </c>
       <c r="W476" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X476" s="5" t="s">
         <v>1071</v>
@@ -20279,7 +20279,7 @@
         <v>88</v>
       </c>
       <c r="W477" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X477" s="5" t="s">
         <v>1071</v>
@@ -20314,7 +20314,7 @@
         <v>88</v>
       </c>
       <c r="W478" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X478" s="5" t="s">
         <v>1071</v>
@@ -20479,7 +20479,7 @@
         <v>840</v>
       </c>
       <c r="W485" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X485" s="5" t="s">
         <v>1071</v>
@@ -20505,7 +20505,7 @@
         <v>839</v>
       </c>
       <c r="W486" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X486" s="5" t="s">
         <v>1071</v>
@@ -20531,7 +20531,7 @@
         <v>836</v>
       </c>
       <c r="W487" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X487" s="5" t="s">
         <v>1071</v>
@@ -20557,7 +20557,7 @@
         <v>837</v>
       </c>
       <c r="W488" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X488" s="5" t="s">
         <v>1071</v>
@@ -20583,7 +20583,7 @@
         <v>838</v>
       </c>
       <c r="W489" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X489" s="5" t="s">
         <v>1071</v>
@@ -20609,7 +20609,7 @@
         <v>845</v>
       </c>
       <c r="W490" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X490" s="5" t="s">
         <v>1071</v>
@@ -20635,7 +20635,7 @@
         <v>833</v>
       </c>
       <c r="W491" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X491" s="5" t="s">
         <v>1071</v>
@@ -20661,7 +20661,7 @@
         <v>913</v>
       </c>
       <c r="W492" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X492" s="5" t="s">
         <v>1071</v>
@@ -20687,7 +20687,7 @@
         <v>912</v>
       </c>
       <c r="W493" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X493" s="5" t="s">
         <v>1071</v>
@@ -20713,7 +20713,7 @@
         <v>834</v>
       </c>
       <c r="W494" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X494" s="5" t="s">
         <v>1071</v>
@@ -20913,7 +20913,7 @@
         <v>58</v>
       </c>
       <c r="W501" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X501" s="5" t="s">
         <v>1071</v>
@@ -20948,7 +20948,7 @@
         <v>58</v>
       </c>
       <c r="W502" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X502" s="5" t="s">
         <v>1071</v>
@@ -20983,7 +20983,7 @@
         <v>58</v>
       </c>
       <c r="W503" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X503" s="5" t="s">
         <v>1071</v>
@@ -21018,7 +21018,7 @@
         <v>58</v>
       </c>
       <c r="W504" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X504" s="5" t="s">
         <v>1071</v>
@@ -21053,7 +21053,7 @@
         <v>58</v>
       </c>
       <c r="W505" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X505" s="5" t="s">
         <v>1071</v>
@@ -21088,7 +21088,7 @@
         <v>58</v>
       </c>
       <c r="W506" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X506" s="5" t="s">
         <v>1071</v>
@@ -21123,7 +21123,7 @@
         <v>58</v>
       </c>
       <c r="W507" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X507" s="5" t="s">
         <v>1071</v>
@@ -21158,7 +21158,7 @@
         <v>58</v>
       </c>
       <c r="W508" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X508" s="5" t="s">
         <v>1071</v>
@@ -21193,7 +21193,7 @@
         <v>58</v>
       </c>
       <c r="W509" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X509" s="5" t="s">
         <v>1071</v>
@@ -21414,7 +21414,7 @@
         <v>170</v>
       </c>
       <c r="W516" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X516" s="5" t="s">
         <v>1071</v>
@@ -21455,7 +21455,7 @@
         <v>170</v>
       </c>
       <c r="W517" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X517" s="5" t="s">
         <v>1071</v>
@@ -21505,7 +21505,7 @@
         <v>670</v>
       </c>
       <c r="W518" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X518" s="5" t="s">
         <v>1071</v>
@@ -21558,7 +21558,7 @@
         <v>670</v>
       </c>
       <c r="W519" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X519" s="5" t="s">
         <v>1071</v>
@@ -21611,7 +21611,7 @@
         <v>670</v>
       </c>
       <c r="W520" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X520" s="5" t="s">
         <v>1071</v>
@@ -21661,7 +21661,7 @@
         <v>670</v>
       </c>
       <c r="W521" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X521" s="5" t="s">
         <v>1071</v>
@@ -21702,7 +21702,7 @@
         <v>58</v>
       </c>
       <c r="W522" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X522" s="5" t="s">
         <v>1071</v>
@@ -21740,7 +21740,7 @@
         <v>58</v>
       </c>
       <c r="W523" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X523" s="5" t="s">
         <v>1071</v>
@@ -21781,7 +21781,7 @@
         <v>58</v>
       </c>
       <c r="W524" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X524" s="5" t="s">
         <v>1071</v>
@@ -21819,7 +21819,7 @@
         <v>58</v>
       </c>
       <c r="W525" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X525" s="5" t="s">
         <v>1071</v>
@@ -21975,7 +21975,7 @@
         <v>1168</v>
       </c>
       <c r="W532" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X532" s="5" t="s">
         <v>1071</v>
@@ -22004,7 +22004,7 @@
         <v>1168</v>
       </c>
       <c r="W533" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X533" s="5" t="s">
         <v>1071</v>
@@ -22033,7 +22033,7 @@
         <v>1168</v>
       </c>
       <c r="W534" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X534" s="5" t="s">
         <v>1071</v>
@@ -22065,7 +22065,7 @@
         <v>1168</v>
       </c>
       <c r="W535" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X535" s="5" t="s">
         <v>1071</v>
@@ -22094,7 +22094,7 @@
         <v>1168</v>
       </c>
       <c r="W536" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X536" s="5" t="s">
         <v>1071</v>
@@ -22123,13 +22123,13 @@
         <v>1168</v>
       </c>
       <c r="W537" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X537" s="5" t="s">
         <v>1071</v>
       </c>
       <c r="AJ537" s="5" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="AM537" s="5" t="s">
         <v>1265</v>
@@ -22158,7 +22158,7 @@
         <v>1168</v>
       </c>
       <c r="W538" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X538" s="5" t="s">
         <v>1071</v>
@@ -22187,13 +22187,13 @@
         <v>1168</v>
       </c>
       <c r="W539" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X539" s="5" t="s">
         <v>1071</v>
       </c>
       <c r="AJ539" s="5" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="AN539" s="5" t="s">
         <v>1085</v>
@@ -22328,7 +22328,7 @@
         <v>840</v>
       </c>
       <c r="W545" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X545" s="5" t="s">
         <v>1071</v>
@@ -22354,7 +22354,7 @@
         <v>839</v>
       </c>
       <c r="W546" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X546" s="5" t="s">
         <v>1071</v>
@@ -22380,7 +22380,7 @@
         <v>836</v>
       </c>
       <c r="W547" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X547" s="5" t="s">
         <v>1071</v>
@@ -22406,7 +22406,7 @@
         <v>837</v>
       </c>
       <c r="W548" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X548" s="5" t="s">
         <v>1071</v>
@@ -22432,7 +22432,7 @@
         <v>838</v>
       </c>
       <c r="W549" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X549" s="5" t="s">
         <v>1071</v>
@@ -22458,7 +22458,7 @@
         <v>845</v>
       </c>
       <c r="W550" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X550" s="5" t="s">
         <v>1071</v>
@@ -22484,7 +22484,7 @@
         <v>833</v>
       </c>
       <c r="W551" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X551" s="5" t="s">
         <v>1071</v>
@@ -22510,7 +22510,7 @@
         <v>913</v>
       </c>
       <c r="W552" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X552" s="5" t="s">
         <v>1071</v>
@@ -22536,7 +22536,7 @@
         <v>912</v>
       </c>
       <c r="W553" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X553" s="5" t="s">
         <v>1071</v>
@@ -22562,7 +22562,7 @@
         <v>834</v>
       </c>
       <c r="W554" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X554" s="5" t="s">
         <v>1071</v>
@@ -22756,7 +22756,7 @@
         <v>220</v>
       </c>
       <c r="W561" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X561" s="5" t="s">
         <v>1071</v>
@@ -22794,7 +22794,7 @@
         <v>220</v>
       </c>
       <c r="W562" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X562" s="5" t="s">
         <v>1071</v>
@@ -22829,7 +22829,7 @@
         <v>58</v>
       </c>
       <c r="W563" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X563" s="5" t="s">
         <v>1071</v>
@@ -22864,7 +22864,7 @@
         <v>58</v>
       </c>
       <c r="W564" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X564" s="5" t="s">
         <v>1071</v>
@@ -22899,7 +22899,7 @@
         <v>58</v>
       </c>
       <c r="W565" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X565" s="5" t="s">
         <v>1071</v>
@@ -22934,7 +22934,7 @@
         <v>58</v>
       </c>
       <c r="W566" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X566" s="5" t="s">
         <v>1071</v>
@@ -22969,13 +22969,13 @@
         <v>58</v>
       </c>
       <c r="W567" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X567" s="5" t="s">
         <v>1071</v>
       </c>
       <c r="AM567" t="s">
-        <v>1310</v>
+        <v>1320</v>
       </c>
       <c r="AN567" s="5" t="s">
         <v>1083</v>
@@ -23007,7 +23007,7 @@
         <v>58</v>
       </c>
       <c r="W568" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X568" s="5" t="s">
         <v>1071</v>
@@ -23042,7 +23042,7 @@
         <v>58</v>
       </c>
       <c r="W569" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X569" s="5" t="s">
         <v>1071</v>
@@ -23077,7 +23077,7 @@
         <v>58</v>
       </c>
       <c r="W570" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X570" s="5" t="s">
         <v>1071</v>
@@ -23300,7 +23300,7 @@
         <v>765</v>
       </c>
       <c r="W577" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X577" s="5" t="s">
         <v>1071</v>
@@ -23339,7 +23339,7 @@
         <v>765</v>
       </c>
       <c r="W578" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X578" s="5" t="s">
         <v>1071</v>
@@ -23378,7 +23378,7 @@
         <v>765</v>
       </c>
       <c r="W579" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X579" s="5" t="s">
         <v>1071</v>
@@ -23417,7 +23417,7 @@
         <v>765</v>
       </c>
       <c r="W580" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X580" s="5" t="s">
         <v>1071</v>
@@ -23456,7 +23456,7 @@
         <v>765</v>
       </c>
       <c r="W581" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X581" s="5" t="s">
         <v>1071</v>
@@ -23495,7 +23495,7 @@
         <v>765</v>
       </c>
       <c r="W582" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X582" s="5" t="s">
         <v>1071</v>
@@ -23534,7 +23534,7 @@
         <v>765</v>
       </c>
       <c r="W583" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X583" s="5" t="s">
         <v>1071</v>
@@ -23573,7 +23573,7 @@
         <v>765</v>
       </c>
       <c r="W584" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X584" s="5" t="s">
         <v>1071</v>
@@ -23612,7 +23612,7 @@
         <v>765</v>
       </c>
       <c r="W585" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X585" s="5" t="s">
         <v>1071</v>
@@ -23651,7 +23651,7 @@
         <v>765</v>
       </c>
       <c r="W586" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X586" s="5" t="s">
         <v>1071</v>
@@ -23778,7 +23778,7 @@
         <v>670</v>
       </c>
       <c r="W590" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X590" s="5" t="s">
         <v>1071</v>
@@ -23825,7 +23825,7 @@
         <v>670</v>
       </c>
       <c r="W591" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X591" s="5" t="s">
         <v>1071</v>
@@ -23875,7 +23875,7 @@
         <v>670</v>
       </c>
       <c r="W592" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X592" s="5" t="s">
         <v>1071</v>
@@ -23922,7 +23922,7 @@
         <v>670</v>
       </c>
       <c r="W593" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X593" s="5" t="s">
         <v>1071</v>
@@ -23969,7 +23969,7 @@
         <v>670</v>
       </c>
       <c r="W594" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X594" s="5" t="s">
         <v>1071</v>
@@ -24019,7 +24019,7 @@
         <v>670</v>
       </c>
       <c r="W595" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X595" s="5" t="s">
         <v>1071</v>
@@ -24066,7 +24066,7 @@
         <v>670</v>
       </c>
       <c r="W596" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X596" s="5" t="s">
         <v>1071</v>
@@ -24113,7 +24113,7 @@
         <v>670</v>
       </c>
       <c r="W597" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X597" s="5" t="s">
         <v>1071</v>
@@ -24166,7 +24166,7 @@
         <v>670</v>
       </c>
       <c r="W598" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X598" s="5" t="s">
         <v>1071</v>
@@ -24219,7 +24219,7 @@
         <v>670</v>
       </c>
       <c r="W599" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X599" s="5" t="s">
         <v>1071</v>
@@ -24426,7 +24426,7 @@
         <v>690</v>
       </c>
       <c r="W606" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X606" s="5" t="s">
         <v>1071</v>
@@ -24470,7 +24470,7 @@
         <v>690</v>
       </c>
       <c r="W607" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X607" s="5" t="s">
         <v>1071</v>
@@ -24517,7 +24517,7 @@
         <v>690</v>
       </c>
       <c r="W608" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X608" s="5" t="s">
         <v>1071</v>
@@ -24564,7 +24564,7 @@
         <v>690</v>
       </c>
       <c r="W609" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X609" s="5" t="s">
         <v>1071</v>
@@ -24608,7 +24608,7 @@
         <v>690</v>
       </c>
       <c r="W610" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X610" s="5" t="s">
         <v>1071</v>
@@ -24652,7 +24652,7 @@
         <v>690</v>
       </c>
       <c r="W611" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X611" s="5" t="s">
         <v>1071</v>
@@ -24699,7 +24699,7 @@
         <v>690</v>
       </c>
       <c r="W612" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X612" s="5" t="s">
         <v>1071</v>
@@ -24743,7 +24743,7 @@
         <v>690</v>
       </c>
       <c r="W613" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X613" s="5" t="s">
         <v>1071</v>
@@ -24787,7 +24787,7 @@
         <v>690</v>
       </c>
       <c r="W614" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X614" s="5" t="s">
         <v>1071</v>
@@ -24831,7 +24831,7 @@
         <v>690</v>
       </c>
       <c r="W615" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X615" s="5" t="s">
         <v>1071</v>
@@ -25035,7 +25035,7 @@
         <v>88</v>
       </c>
       <c r="W622" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X622" s="5" t="s">
         <v>1071</v>
@@ -25070,7 +25070,7 @@
         <v>88</v>
       </c>
       <c r="W623" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X623" s="5" t="s">
         <v>1071</v>
@@ -25105,7 +25105,7 @@
         <v>88</v>
       </c>
       <c r="W624" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X624" s="5" t="s">
         <v>1071</v>
@@ -25140,7 +25140,7 @@
         <v>88</v>
       </c>
       <c r="W625" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X625" s="5" t="s">
         <v>1071</v>
@@ -25178,7 +25178,7 @@
         <v>88</v>
       </c>
       <c r="W626" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X626" s="5" t="s">
         <v>1071</v>
@@ -25213,7 +25213,7 @@
         <v>88</v>
       </c>
       <c r="W627" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X627" s="5" t="s">
         <v>1071</v>
@@ -25248,7 +25248,7 @@
         <v>88</v>
       </c>
       <c r="W628" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X628" s="5" t="s">
         <v>1071</v>
@@ -25283,7 +25283,7 @@
         <v>88</v>
       </c>
       <c r="W629" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X629" s="5" t="s">
         <v>1071</v>
@@ -25318,7 +25318,7 @@
         <v>88</v>
       </c>
       <c r="W630" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X630" s="5" t="s">
         <v>1071</v>
@@ -25353,7 +25353,7 @@
         <v>88</v>
       </c>
       <c r="W631" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X631" s="5" t="s">
         <v>1071</v>
@@ -25568,7 +25568,7 @@
         <v>936</v>
       </c>
       <c r="W638" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X638" s="5" t="s">
         <v>1071</v>
@@ -25615,7 +25615,7 @@
         <v>936</v>
       </c>
       <c r="W639" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X639" s="5" t="s">
         <v>1071</v>
@@ -25662,7 +25662,7 @@
         <v>936</v>
       </c>
       <c r="W640" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X640" s="5" t="s">
         <v>1071</v>
@@ -25709,7 +25709,7 @@
         <v>936</v>
       </c>
       <c r="W641" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X641" s="5" t="s">
         <v>1071</v>
@@ -25756,7 +25756,7 @@
         <v>936</v>
       </c>
       <c r="W642" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X642" s="5" t="s">
         <v>1071</v>
@@ -25803,7 +25803,7 @@
         <v>936</v>
       </c>
       <c r="W643" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X643" s="5" t="s">
         <v>1071</v>
@@ -25850,7 +25850,7 @@
         <v>936</v>
       </c>
       <c r="W644" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X644" s="5" t="s">
         <v>1071</v>
@@ -25897,7 +25897,7 @@
         <v>936</v>
       </c>
       <c r="W645" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X645" s="5" t="s">
         <v>1071</v>
@@ -25944,7 +25944,7 @@
         <v>936</v>
       </c>
       <c r="W646" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X646" s="5" t="s">
         <v>1071</v>
@@ -25991,7 +25991,7 @@
         <v>936</v>
       </c>
       <c r="W647" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X647" s="5" t="s">
         <v>1071</v>
@@ -26180,7 +26180,7 @@
         <v>670</v>
       </c>
       <c r="W653" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X653" s="5" t="s">
         <v>1071</v>
@@ -26230,7 +26230,7 @@
         <v>670</v>
       </c>
       <c r="W654" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X654" s="5" t="s">
         <v>1071</v>
@@ -26280,7 +26280,7 @@
         <v>670</v>
       </c>
       <c r="W655" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X655" s="5" t="s">
         <v>1071</v>
@@ -26330,7 +26330,7 @@
         <v>670</v>
       </c>
       <c r="W656" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X656" s="5" t="s">
         <v>1071</v>
@@ -26380,7 +26380,7 @@
         <v>670</v>
       </c>
       <c r="W657" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X657" s="5" t="s">
         <v>1071</v>
@@ -26430,7 +26430,7 @@
         <v>670</v>
       </c>
       <c r="W658" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X658" s="5" t="s">
         <v>1071</v>
@@ -26480,7 +26480,7 @@
         <v>670</v>
       </c>
       <c r="W659" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X659" s="5" t="s">
         <v>1071</v>
@@ -26696,7 +26696,7 @@
         <v>232</v>
       </c>
       <c r="W666" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X666" s="5" t="s">
         <v>1071</v>
@@ -26734,7 +26734,7 @@
         <v>232</v>
       </c>
       <c r="W667" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X667" s="5" t="s">
         <v>1071</v>
@@ -26772,7 +26772,7 @@
         <v>235</v>
       </c>
       <c r="W668" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X668" s="5" t="s">
         <v>1071</v>
@@ -26810,7 +26810,7 @@
         <v>235</v>
       </c>
       <c r="W669" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X669" s="5" t="s">
         <v>1071</v>
@@ -26848,7 +26848,7 @@
         <v>235</v>
       </c>
       <c r="W670" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X670" s="5" t="s">
         <v>1071</v>
@@ -26886,7 +26886,7 @@
         <v>235</v>
       </c>
       <c r="W671" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X671" s="5" t="s">
         <v>1071</v>
@@ -26924,7 +26924,7 @@
         <v>88</v>
       </c>
       <c r="W672" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X672" s="5" t="s">
         <v>1071</v>
@@ -26962,7 +26962,7 @@
         <v>88</v>
       </c>
       <c r="W673" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X673" s="5" t="s">
         <v>1071</v>
@@ -27000,7 +27000,7 @@
         <v>88</v>
       </c>
       <c r="W674" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X674" s="5" t="s">
         <v>1071</v>
@@ -27038,7 +27038,7 @@
         <v>88</v>
       </c>
       <c r="W675" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X675" s="5" t="s">
         <v>1071</v>
@@ -27236,7 +27236,7 @@
         <v>88</v>
       </c>
       <c r="W682" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X682" s="5" t="s">
         <v>1071</v>
@@ -27271,7 +27271,7 @@
         <v>88</v>
       </c>
       <c r="W683" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X683" s="5" t="s">
         <v>1071</v>
@@ -27306,7 +27306,7 @@
         <v>88</v>
       </c>
       <c r="W684" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X684" s="5" t="s">
         <v>1071</v>
@@ -27341,7 +27341,7 @@
         <v>88</v>
       </c>
       <c r="W685" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X685" s="5" t="s">
         <v>1071</v>
@@ -27376,7 +27376,7 @@
         <v>88</v>
       </c>
       <c r="W686" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X686" s="5" t="s">
         <v>1071</v>
@@ -27411,7 +27411,7 @@
         <v>88</v>
       </c>
       <c r="W687" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X687" s="5" t="s">
         <v>1071</v>
@@ -27446,7 +27446,7 @@
         <v>88</v>
       </c>
       <c r="W688" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X688" s="5" t="s">
         <v>1071</v>
@@ -27481,7 +27481,7 @@
         <v>88</v>
       </c>
       <c r="W689" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X689" s="5" t="s">
         <v>1071</v>
@@ -27516,7 +27516,7 @@
         <v>88</v>
       </c>
       <c r="W690" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X690" s="5" t="s">
         <v>1071</v>
@@ -27551,7 +27551,7 @@
         <v>88</v>
       </c>
       <c r="W691" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X691" s="5" t="s">
         <v>1071</v>
@@ -27755,7 +27755,7 @@
         <v>293</v>
       </c>
       <c r="W698" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X698" s="5" t="s">
         <v>1071</v>
@@ -27797,7 +27797,7 @@
         <v>293</v>
       </c>
       <c r="W699" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X699" s="5" t="s">
         <v>1071</v>
@@ -27833,7 +27833,7 @@
         <v>88</v>
       </c>
       <c r="W700" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X700" s="5" t="s">
         <v>1071</v>
@@ -27868,7 +27868,7 @@
         <v>88</v>
       </c>
       <c r="W701" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X701" s="5" t="s">
         <v>1071</v>
@@ -27906,7 +27906,7 @@
         <v>88</v>
       </c>
       <c r="W702" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X702" s="5" t="s">
         <v>1071</v>
@@ -27944,7 +27944,7 @@
         <v>88</v>
       </c>
       <c r="W703" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X703" s="5" t="s">
         <v>1071</v>
@@ -27982,7 +27982,7 @@
         <v>88</v>
       </c>
       <c r="W704" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X704" s="5" t="s">
         <v>1071</v>
@@ -28020,7 +28020,7 @@
         <v>88</v>
       </c>
       <c r="W705" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X705" s="5" t="s">
         <v>1071</v>
@@ -28058,7 +28058,7 @@
         <v>88</v>
       </c>
       <c r="W706" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X706" s="5" t="s">
         <v>1071</v>
@@ -28099,7 +28099,7 @@
         <v>88</v>
       </c>
       <c r="W707" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X707" s="5" t="s">
         <v>1071</v>
@@ -28297,7 +28297,7 @@
         <v>88</v>
       </c>
       <c r="W714" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X714" s="5" t="s">
         <v>1071</v>
@@ -28332,7 +28332,7 @@
         <v>88</v>
       </c>
       <c r="W715" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X715" s="5" t="s">
         <v>1071</v>
@@ -28367,7 +28367,7 @@
         <v>88</v>
       </c>
       <c r="W716" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X716" s="5" t="s">
         <v>1071</v>
@@ -28402,7 +28402,7 @@
         <v>88</v>
       </c>
       <c r="W717" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X717" s="5" t="s">
         <v>1071</v>
@@ -28437,7 +28437,7 @@
         <v>88</v>
       </c>
       <c r="W718" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X718" s="5" t="s">
         <v>1071</v>
@@ -28472,7 +28472,7 @@
         <v>88</v>
       </c>
       <c r="W719" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X719" s="5" t="s">
         <v>1071</v>
@@ -28507,7 +28507,7 @@
         <v>88</v>
       </c>
       <c r="W720" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X720" s="5" t="s">
         <v>1071</v>
@@ -28542,7 +28542,7 @@
         <v>88</v>
       </c>
       <c r="W721" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X721" s="5" t="s">
         <v>1071</v>
@@ -28577,7 +28577,7 @@
         <v>88</v>
       </c>
       <c r="W722" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X722" s="5" t="s">
         <v>1071</v>
@@ -28612,7 +28612,7 @@
         <v>88</v>
       </c>
       <c r="W723" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X723" s="5" t="s">
         <v>1071</v>
@@ -28811,7 +28811,7 @@
       </c>
       <c r="V730" s="4"/>
       <c r="W730" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X730" s="5" t="s">
         <v>1071</v>
@@ -28847,7 +28847,7 @@
         <v>88</v>
       </c>
       <c r="W731" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X731" s="5" t="s">
         <v>1071</v>
@@ -28882,7 +28882,7 @@
         <v>88</v>
       </c>
       <c r="W732" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X732" s="5" t="s">
         <v>1071</v>
@@ -28917,7 +28917,7 @@
         <v>88</v>
       </c>
       <c r="W733" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X733" s="5" t="s">
         <v>1071</v>
@@ -28952,7 +28952,7 @@
         <v>88</v>
       </c>
       <c r="W734" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X734" s="5" t="s">
         <v>1071</v>
@@ -28987,7 +28987,7 @@
         <v>88</v>
       </c>
       <c r="W735" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X735" s="5" t="s">
         <v>1071</v>
@@ -29028,7 +29028,7 @@
         <v>239</v>
       </c>
       <c r="W736" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X736" s="5" t="s">
         <v>1071</v>
@@ -29069,7 +29069,7 @@
         <v>239</v>
       </c>
       <c r="W737" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X737" s="5" t="s">
         <v>1071</v>
@@ -29110,7 +29110,7 @@
         <v>239</v>
       </c>
       <c r="W738" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X738" s="5" t="s">
         <v>1071</v>
@@ -29151,7 +29151,7 @@
         <v>239</v>
       </c>
       <c r="W739" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X739" s="5" t="s">
         <v>1071</v>
@@ -29388,7 +29388,7 @@
         <v>690</v>
       </c>
       <c r="W746" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X746" s="5" t="s">
         <v>1071</v>
@@ -29439,7 +29439,7 @@
         <v>690</v>
       </c>
       <c r="W747" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X747" s="5" t="s">
         <v>1071</v>
@@ -29493,7 +29493,7 @@
         <v>690</v>
       </c>
       <c r="W748" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X748" s="5" t="s">
         <v>1071</v>
@@ -29550,7 +29550,7 @@
         <v>690</v>
       </c>
       <c r="W749" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X749" s="5" t="s">
         <v>1071</v>
@@ -29604,7 +29604,7 @@
         <v>690</v>
       </c>
       <c r="W750" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X750" s="5" t="s">
         <v>1071</v>
@@ -29658,7 +29658,7 @@
         <v>690</v>
       </c>
       <c r="W751" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X751" s="5" t="s">
         <v>1071</v>
@@ -29715,7 +29715,7 @@
         <v>690</v>
       </c>
       <c r="W752" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X752" s="5" t="s">
         <v>1071</v>
@@ -29769,7 +29769,7 @@
         <v>690</v>
       </c>
       <c r="W753" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X753" s="5" t="s">
         <v>1071</v>
@@ -29823,7 +29823,7 @@
         <v>690</v>
       </c>
       <c r="W754" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X754" s="5" t="s">
         <v>1071</v>
@@ -29877,7 +29877,7 @@
         <v>690</v>
       </c>
       <c r="W755" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X755" s="5" t="s">
         <v>1071</v>
@@ -30056,7 +30056,7 @@
         <v>919</v>
       </c>
       <c r="W762" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X762" s="5" t="s">
         <v>1071</v>
@@ -30082,7 +30082,7 @@
         <v>839</v>
       </c>
       <c r="W763" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X763" s="5" t="s">
         <v>1071</v>
@@ -30111,7 +30111,7 @@
         <v>836</v>
       </c>
       <c r="W764" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X764" s="5" t="s">
         <v>1071</v>
@@ -30137,7 +30137,7 @@
         <v>837</v>
       </c>
       <c r="W765" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X765" s="5" t="s">
         <v>1071</v>
@@ -30166,7 +30166,7 @@
         <v>838</v>
       </c>
       <c r="W766" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X766" s="5" t="s">
         <v>1071</v>
@@ -30192,7 +30192,7 @@
         <v>845</v>
       </c>
       <c r="W767" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X767" s="5" t="s">
         <v>1071</v>
@@ -30218,7 +30218,7 @@
         <v>833</v>
       </c>
       <c r="W768" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X768" s="5" t="s">
         <v>1071</v>
@@ -30244,7 +30244,7 @@
         <v>913</v>
       </c>
       <c r="W769" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X769" s="5" t="s">
         <v>1071</v>
@@ -30270,7 +30270,7 @@
         <v>912</v>
       </c>
       <c r="W770" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X770" s="5" t="s">
         <v>1071</v>
@@ -30296,7 +30296,7 @@
         <v>834</v>
       </c>
       <c r="W771" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X771" s="5" t="s">
         <v>1071</v>
@@ -30514,7 +30514,7 @@
         <v>670</v>
       </c>
       <c r="W778" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X778" s="5" t="s">
         <v>1071</v>
@@ -30561,7 +30561,7 @@
         <v>670</v>
       </c>
       <c r="W779" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X779" s="5" t="s">
         <v>1071</v>
@@ -30596,7 +30596,7 @@
         <v>670</v>
       </c>
       <c r="W780" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X780" s="5" t="s">
         <v>1071</v>
@@ -30631,7 +30631,7 @@
         <v>670</v>
       </c>
       <c r="W781" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X781" s="5" t="s">
         <v>1071</v>
@@ -30666,7 +30666,7 @@
         <v>670</v>
       </c>
       <c r="W782" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X782" s="5" t="s">
         <v>1071</v>
@@ -30704,7 +30704,7 @@
         <v>670</v>
       </c>
       <c r="W783" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X783" s="5" t="s">
         <v>1071</v>
@@ -30739,7 +30739,7 @@
         <v>670</v>
       </c>
       <c r="W784" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X784" s="5" t="s">
         <v>1071</v>
@@ -30774,7 +30774,7 @@
         <v>670</v>
       </c>
       <c r="W785" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X785" s="5" t="s">
         <v>1071</v>
@@ -30809,7 +30809,7 @@
         <v>670</v>
       </c>
       <c r="W786" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X786" s="5" t="s">
         <v>1071</v>
@@ -30844,7 +30844,7 @@
         <v>670</v>
       </c>
       <c r="W787" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X787" s="5" t="s">
         <v>1071</v>
@@ -31053,7 +31053,7 @@
         <v>396</v>
       </c>
       <c r="W794" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X794" s="5" t="s">
         <v>1071</v>
@@ -31095,7 +31095,7 @@
       </c>
       <c r="V795" s="4"/>
       <c r="W795" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X795" s="5" t="s">
         <v>1071</v>
@@ -31135,7 +31135,7 @@
         <v>941</v>
       </c>
       <c r="W796" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X796" s="5" t="s">
         <v>1071</v>
@@ -31173,7 +31173,7 @@
         <v>941</v>
       </c>
       <c r="W797" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X797" s="5" t="s">
         <v>1071</v>
@@ -31211,7 +31211,7 @@
         <v>941</v>
       </c>
       <c r="W798" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X798" s="5" t="s">
         <v>1071</v>
@@ -31249,7 +31249,7 @@
         <v>941</v>
       </c>
       <c r="W799" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X799" s="5" t="s">
         <v>1071</v>
@@ -31287,7 +31287,7 @@
         <v>941</v>
       </c>
       <c r="W800" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X800" s="5" t="s">
         <v>1071</v>
@@ -31325,7 +31325,7 @@
         <v>941</v>
       </c>
       <c r="W801" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X801" s="5" t="s">
         <v>1071</v>
@@ -31363,7 +31363,7 @@
         <v>941</v>
       </c>
       <c r="W802" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X802" s="5" t="s">
         <v>1071</v>
@@ -31401,7 +31401,7 @@
         <v>941</v>
       </c>
       <c r="W803" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X803" s="5" t="s">
         <v>1071</v>
@@ -31567,7 +31567,7 @@
         <v>1202</v>
       </c>
       <c r="W810" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X810" s="5" t="s">
         <v>1071</v>
@@ -31596,7 +31596,7 @@
         <v>1203</v>
       </c>
       <c r="W811" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X811" s="5" t="s">
         <v>1071</v>
@@ -31625,7 +31625,7 @@
         <v>1204</v>
       </c>
       <c r="W812" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X812" s="5" t="s">
         <v>1071</v>
@@ -31654,7 +31654,7 @@
         <v>1205</v>
       </c>
       <c r="W813" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X813" s="5" t="s">
         <v>1071</v>
@@ -31683,7 +31683,7 @@
         <v>1206</v>
       </c>
       <c r="W814" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X814" s="5" t="s">
         <v>1071</v>
@@ -31712,7 +31712,7 @@
         <v>1207</v>
       </c>
       <c r="W815" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X815" s="5" t="s">
         <v>1071</v>
@@ -31741,7 +31741,7 @@
         <v>1210</v>
       </c>
       <c r="W816" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X816" s="5" t="s">
         <v>1071</v>
@@ -31770,7 +31770,7 @@
         <v>1211</v>
       </c>
       <c r="W817" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X817" s="5" t="s">
         <v>1071</v>
@@ -31799,7 +31799,7 @@
         <v>1208</v>
       </c>
       <c r="W818" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X818" s="5" t="s">
         <v>1071</v>
@@ -31828,7 +31828,7 @@
         <v>1209</v>
       </c>
       <c r="W819" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X819" s="5" t="s">
         <v>1071</v>
@@ -32045,7 +32045,7 @@
         <v>281</v>
       </c>
       <c r="W826" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X826" s="5" t="s">
         <v>1071</v>
@@ -32083,7 +32083,7 @@
         <v>281</v>
       </c>
       <c r="W827" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X827" s="5" t="s">
         <v>1071</v>
@@ -32121,7 +32121,7 @@
         <v>285</v>
       </c>
       <c r="W828" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X828" s="5" t="s">
         <v>1071</v>
@@ -32159,7 +32159,7 @@
         <v>285</v>
       </c>
       <c r="W829" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X829" s="5" t="s">
         <v>1071</v>
@@ -32197,7 +32197,7 @@
         <v>285</v>
       </c>
       <c r="W830" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X830" s="5" t="s">
         <v>1071</v>
@@ -32235,7 +32235,7 @@
         <v>285</v>
       </c>
       <c r="W831" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X831" s="5" t="s">
         <v>1071</v>
@@ -32273,7 +32273,7 @@
         <v>289</v>
       </c>
       <c r="W832" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X832" s="5" t="s">
         <v>1071</v>
@@ -32314,7 +32314,7 @@
         <v>289</v>
       </c>
       <c r="W833" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X833" s="5" t="s">
         <v>1071</v>
@@ -32352,7 +32352,7 @@
         <v>289</v>
       </c>
       <c r="W834" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X834" s="5" t="s">
         <v>1071</v>
@@ -32390,7 +32390,7 @@
         <v>289</v>
       </c>
       <c r="W835" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X835" s="5" t="s">
         <v>1071</v>
@@ -32610,7 +32610,7 @@
         <v>356</v>
       </c>
       <c r="W842" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X842" s="5" t="s">
         <v>1071</v>
@@ -32648,7 +32648,7 @@
         <v>437</v>
       </c>
       <c r="W843" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X843" s="5" t="s">
         <v>1071</v>
@@ -32686,7 +32686,7 @@
         <v>437</v>
       </c>
       <c r="W844" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X844" s="5" t="s">
         <v>1071</v>
@@ -32724,7 +32724,7 @@
         <v>437</v>
       </c>
       <c r="W845" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X845" s="5" t="s">
         <v>1071</v>
@@ -32762,7 +32762,7 @@
         <v>437</v>
       </c>
       <c r="W846" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X846" s="5" t="s">
         <v>1071</v>
@@ -32800,7 +32800,7 @@
         <v>440</v>
       </c>
       <c r="W847" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X847" s="5" t="s">
         <v>1071</v>
@@ -32838,7 +32838,7 @@
         <v>440</v>
       </c>
       <c r="W848" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X848" s="5" t="s">
         <v>1071</v>
@@ -32879,7 +32879,7 @@
         <v>440</v>
       </c>
       <c r="W849" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X849" s="5" t="s">
         <v>1071</v>
@@ -32917,7 +32917,7 @@
         <v>440</v>
       </c>
       <c r="W850" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X850" s="5" t="s">
         <v>1071</v>
@@ -33129,7 +33129,7 @@
         <v>445</v>
       </c>
       <c r="W857" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X857" s="5" t="s">
         <v>1071</v>
@@ -33167,7 +33167,7 @@
         <v>445</v>
       </c>
       <c r="W858" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X858" s="5" t="s">
         <v>1071</v>
@@ -33205,7 +33205,7 @@
         <v>447</v>
       </c>
       <c r="W859" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X859" s="5" t="s">
         <v>1071</v>
@@ -33243,7 +33243,7 @@
         <v>447</v>
       </c>
       <c r="W860" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X860" s="5" t="s">
         <v>1071</v>
@@ -33281,7 +33281,7 @@
         <v>447</v>
       </c>
       <c r="W861" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X861" s="5" t="s">
         <v>1071</v>
@@ -33319,7 +33319,7 @@
         <v>447</v>
       </c>
       <c r="W862" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X862" s="5" t="s">
         <v>1071</v>
@@ -33357,7 +33357,7 @@
         <v>421</v>
       </c>
       <c r="W863" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X863" s="5" t="s">
         <v>1071</v>
@@ -33395,7 +33395,7 @@
         <v>421</v>
       </c>
       <c r="W864" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X864" s="5" t="s">
         <v>1071</v>
@@ -33433,7 +33433,7 @@
         <v>421</v>
       </c>
       <c r="W865" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X865" s="5" t="s">
         <v>1071</v>
@@ -33471,7 +33471,7 @@
         <v>421</v>
       </c>
       <c r="W866" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X866" s="5" t="s">
         <v>1071</v>
@@ -33680,7 +33680,7 @@
         <v>455</v>
       </c>
       <c r="W873" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X873" s="5" t="s">
         <v>1071</v>
@@ -33718,7 +33718,7 @@
         <v>455</v>
       </c>
       <c r="W874" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X874" s="5" t="s">
         <v>1071</v>
@@ -33756,7 +33756,7 @@
         <v>458</v>
       </c>
       <c r="W875" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X875" s="5" t="s">
         <v>1071</v>
@@ -33794,7 +33794,7 @@
         <v>458</v>
       </c>
       <c r="W876" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X876" s="5" t="s">
         <v>1071</v>
@@ -33835,7 +33835,7 @@
         <v>458</v>
       </c>
       <c r="W877" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X877" s="5" t="s">
         <v>1071</v>
@@ -33873,7 +33873,7 @@
         <v>458</v>
       </c>
       <c r="W878" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X878" s="5" t="s">
         <v>1071</v>
@@ -33911,7 +33911,7 @@
         <v>461</v>
       </c>
       <c r="W879" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X879" s="5" t="s">
         <v>1071</v>
@@ -33949,7 +33949,7 @@
         <v>461</v>
       </c>
       <c r="W880" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X880" s="5" t="s">
         <v>1071</v>
@@ -33987,7 +33987,7 @@
         <v>461</v>
       </c>
       <c r="W881" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X881" s="5" t="s">
         <v>1071</v>
@@ -34028,7 +34028,7 @@
         <v>461</v>
       </c>
       <c r="W882" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X882" s="5" t="s">
         <v>1071</v>
@@ -34274,7 +34274,7 @@
         <v>670</v>
       </c>
       <c r="W889" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X889" s="5" t="s">
         <v>1071</v>
@@ -34327,7 +34327,7 @@
         <v>670</v>
       </c>
       <c r="W890" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X890" s="5" t="s">
         <v>1071</v>
@@ -34383,7 +34383,7 @@
         <v>670</v>
       </c>
       <c r="W891" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X891" s="5" t="s">
         <v>1071</v>
@@ -34436,7 +34436,7 @@
         <v>670</v>
       </c>
       <c r="W892" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X892" s="5" t="s">
         <v>1071</v>
@@ -34489,7 +34489,7 @@
         <v>670</v>
       </c>
       <c r="W893" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X893" s="5" t="s">
         <v>1071</v>
@@ -34542,7 +34542,7 @@
         <v>670</v>
       </c>
       <c r="W894" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X894" s="5" t="s">
         <v>1071</v>
@@ -34595,7 +34595,7 @@
         <v>670</v>
       </c>
       <c r="W895" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X895" s="5" t="s">
         <v>1071</v>
@@ -34651,7 +34651,7 @@
         <v>670</v>
       </c>
       <c r="W896" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X896" s="5" t="s">
         <v>1071</v>
@@ -34704,7 +34704,7 @@
         <v>670</v>
       </c>
       <c r="W897" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X897" s="5" t="s">
         <v>1071</v>
@@ -34871,7 +34871,7 @@
         <v>934</v>
       </c>
       <c r="W904" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X904" s="5" t="s">
         <v>1071</v>
@@ -34909,7 +34909,7 @@
         <v>934</v>
       </c>
       <c r="W905" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X905" s="5" t="s">
         <v>1071</v>
@@ -34950,7 +34950,7 @@
         <v>613</v>
       </c>
       <c r="W906" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X906" s="5" t="s">
         <v>1071</v>
@@ -34988,7 +34988,7 @@
         <v>613</v>
       </c>
       <c r="W907" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X907" s="5" t="s">
         <v>1071</v>
@@ -35026,7 +35026,7 @@
         <v>613</v>
       </c>
       <c r="W908" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X908" s="5" t="s">
         <v>1071</v>
@@ -35064,7 +35064,7 @@
         <v>613</v>
       </c>
       <c r="W909" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X909" s="5" t="s">
         <v>1071</v>
@@ -35102,7 +35102,7 @@
         <v>949</v>
       </c>
       <c r="W910" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X910" s="5" t="s">
         <v>1071</v>
@@ -35140,7 +35140,7 @@
         <v>949</v>
       </c>
       <c r="W911" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X911" s="5" t="s">
         <v>1071</v>
@@ -35178,7 +35178,7 @@
         <v>949</v>
       </c>
       <c r="W912" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X912" s="5" t="s">
         <v>1071</v>
@@ -35216,7 +35216,7 @@
         <v>949</v>
       </c>
       <c r="W913" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X913" s="5" t="s">
         <v>1071</v>
@@ -35436,7 +35436,7 @@
         <v>410</v>
       </c>
       <c r="W920" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X920" s="5" t="s">
         <v>1071</v>
@@ -35474,7 +35474,7 @@
         <v>410</v>
       </c>
       <c r="W921" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X921" s="5" t="s">
         <v>1071</v>
@@ -35512,7 +35512,7 @@
         <v>410</v>
       </c>
       <c r="W922" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X922" s="5" t="s">
         <v>1071</v>
@@ -35550,7 +35550,7 @@
         <v>410</v>
       </c>
       <c r="W923" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X923" s="5" t="s">
         <v>1071</v>
@@ -35588,7 +35588,7 @@
         <v>410</v>
       </c>
       <c r="W924" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X924" s="5" t="s">
         <v>1071</v>
@@ -35626,7 +35626,7 @@
         <v>410</v>
       </c>
       <c r="W925" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X925" s="5" t="s">
         <v>1071</v>
@@ -35664,7 +35664,7 @@
         <v>410</v>
       </c>
       <c r="W926" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X926" s="5" t="s">
         <v>1071</v>
@@ -35702,7 +35702,7 @@
         <v>410</v>
       </c>
       <c r="W927" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X927" s="5" t="s">
         <v>1071</v>
@@ -35740,7 +35740,7 @@
         <v>410</v>
       </c>
       <c r="W928" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X928" s="5" t="s">
         <v>1071</v>
@@ -35778,7 +35778,7 @@
         <v>410</v>
       </c>
       <c r="W929" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X929" s="5" t="s">
         <v>1071</v>
@@ -36002,7 +36002,7 @@
         <v>840</v>
       </c>
       <c r="W936" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X936" s="5" t="s">
         <v>1071</v>
@@ -36028,7 +36028,7 @@
         <v>839</v>
       </c>
       <c r="W937" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X937" s="5" t="s">
         <v>1071</v>
@@ -36054,7 +36054,7 @@
         <v>836</v>
       </c>
       <c r="W938" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X938" s="5" t="s">
         <v>1071</v>
@@ -36080,7 +36080,7 @@
         <v>837</v>
       </c>
       <c r="W939" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X939" s="5" t="s">
         <v>1071</v>
@@ -36106,7 +36106,7 @@
         <v>838</v>
       </c>
       <c r="W940" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X940" s="5" t="s">
         <v>1071</v>
@@ -36132,7 +36132,7 @@
         <v>845</v>
       </c>
       <c r="W941" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X941" s="5" t="s">
         <v>1071</v>
@@ -36161,7 +36161,7 @@
         <v>1277</v>
       </c>
       <c r="W942" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X942" s="5" t="s">
         <v>1071</v>
@@ -36187,7 +36187,7 @@
         <v>913</v>
       </c>
       <c r="W943" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X943" s="5" t="s">
         <v>1071</v>
@@ -36213,7 +36213,7 @@
         <v>912</v>
       </c>
       <c r="W944" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X944" s="5" t="s">
         <v>1071</v>
@@ -36239,7 +36239,7 @@
         <v>834</v>
       </c>
       <c r="W945" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X945" s="5" t="s">
         <v>1071</v>
@@ -36399,7 +36399,7 @@
         <v>840</v>
       </c>
       <c r="W952" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X952" s="5" t="s">
         <v>1071</v>
@@ -36425,7 +36425,7 @@
         <v>839</v>
       </c>
       <c r="W953" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X953" s="5" t="s">
         <v>1071</v>
@@ -36454,7 +36454,7 @@
         <v>836</v>
       </c>
       <c r="W954" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X954" s="5" t="s">
         <v>1071</v>
@@ -36480,7 +36480,7 @@
         <v>837</v>
       </c>
       <c r="W955" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X955" s="5" t="s">
         <v>1071</v>
@@ -36506,7 +36506,7 @@
         <v>838</v>
       </c>
       <c r="W956" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X956" s="5" t="s">
         <v>1071</v>
@@ -36532,7 +36532,7 @@
         <v>845</v>
       </c>
       <c r="W957" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X957" s="5" t="s">
         <v>1071</v>
@@ -36558,7 +36558,7 @@
         <v>833</v>
       </c>
       <c r="W958" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X958" s="5" t="s">
         <v>1071</v>
@@ -36584,7 +36584,7 @@
         <v>913</v>
       </c>
       <c r="W959" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X959" s="5" t="s">
         <v>1071</v>
@@ -36610,7 +36610,7 @@
         <v>912</v>
       </c>
       <c r="W960" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X960" s="5" t="s">
         <v>1071</v>
@@ -36636,7 +36636,7 @@
         <v>834</v>
       </c>
       <c r="W961" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X961" s="5" t="s">
         <v>1071</v>
@@ -36934,7 +36934,7 @@
         <v>670</v>
       </c>
       <c r="W968" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X968" s="5" t="s">
         <v>1071</v>
@@ -36987,7 +36987,7 @@
         <v>670</v>
       </c>
       <c r="W969" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X969" s="5" t="s">
         <v>1071</v>
@@ -37040,7 +37040,7 @@
         <v>670</v>
       </c>
       <c r="W970" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X970" s="5" t="s">
         <v>1071</v>
@@ -37105,7 +37105,7 @@
         <v>670</v>
       </c>
       <c r="W971" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X971" s="5" t="s">
         <v>1071</v>
@@ -37158,7 +37158,7 @@
         <v>670</v>
       </c>
       <c r="W972" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X972" s="5" t="s">
         <v>1071</v>
@@ -37211,7 +37211,7 @@
         <v>670</v>
       </c>
       <c r="W973" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X973" s="5" t="s">
         <v>1071</v>
@@ -37264,7 +37264,7 @@
         <v>670</v>
       </c>
       <c r="W974" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X974" s="5" t="s">
         <v>1071</v>
@@ -37320,7 +37320,7 @@
         <v>670</v>
       </c>
       <c r="W975" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X975" s="5" t="s">
         <v>1071</v>
@@ -37376,7 +37376,7 @@
         <v>670</v>
       </c>
       <c r="W976" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X976" s="5" t="s">
         <v>1071</v>
@@ -37432,7 +37432,7 @@
         <v>670</v>
       </c>
       <c r="W977" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X977" s="5" t="s">
         <v>1071</v>

--- a/code/eyeTrackingParams.xlsx
+++ b/code/eyeTrackingParams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aguirre/Documents/MATLAB/projects/eyeTrackTOMEAnalysis/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB01E4C-D385-CD4B-9861-286091D64AD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1102C073-0BD7-D340-8489-FB7656E889C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="460" windowWidth="20480" windowHeight="16400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1300" yWindow="460" windowWidth="27220" windowHeight="10560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eyeTrackingParams" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9874" uniqueCount="1321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9875" uniqueCount="1322">
   <si>
     <t>projectSubfolder</t>
   </si>
@@ -3993,6 +3993,9 @@
   </si>
   <si>
     <t>[-1.50; -0.72]</t>
+  </si>
+  <si>
+    <t>[15201, 2530, 3373, 5147, 6696, 9116, 10332, 11972, 12069, 13618, 15206, 16788, 19183, 20235, 11978, 20249, 20255, 11666, 10434, 5196, 20143, 15049, 10157]</t>
   </si>
 </sst>
 </file>
@@ -4002,7 +4005,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4097,6 +4100,12 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4126,7 +4135,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -4181,6 +4190,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4532,10 +4542,10 @@
   <dimension ref="A1:AQ979"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="AJ549" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="AG237" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AM568" sqref="AM568"/>
+      <selection pane="bottomRight" activeCell="AJ245" sqref="AJ245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12557,6 +12567,9 @@
       <c r="X244" s="5" t="s">
         <v>1316</v>
       </c>
+      <c r="AJ244" s="38" t="s">
+        <v>1321</v>
+      </c>
       <c r="AN244" s="5" t="s">
         <v>95</v>
       </c>

--- a/code/eyeTrackingParams.xlsx
+++ b/code/eyeTrackingParams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aguirre/Documents/MATLAB/projects/eyeTrackTOMEAnalysis/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1102C073-0BD7-D340-8489-FB7656E889C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF60E36-8C72-5A41-91CF-89ADBCDEEA88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1300" yWindow="460" windowWidth="27220" windowHeight="10560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3995,7 +3995,7 @@
     <t>[-1.50; -0.72]</t>
   </si>
   <si>
-    <t>[15201, 2530, 3373, 5147, 6696, 9116, 10332, 11972, 12069, 13618, 15206, 16788, 19183, 20235, 11978, 20249, 20255, 11666, 10434, 5196, 20143, 15049, 10157]</t>
+    <t>[15201, 2530, 3373, 5147, 6696, 9116, 10332, 11972, 12069, 13618, 15206, 16788, 19183, 20235, 11978, 20249, 20255, 11666, 10434, 5196, 20143, 15049, 10157]</t>
   </si>
 </sst>
 </file>
@@ -4545,7 +4545,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="AG237" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AJ245" sqref="AJ245"/>
+      <selection pane="bottomRight" activeCell="AJ244" sqref="AJ244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/code/eyeTrackingParams.xlsx
+++ b/code/eyeTrackingParams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aguirre/Documents/MATLAB/projects/eyeTrackTOMEAnalysis/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF60E36-8C72-5A41-91CF-89ADBCDEEA88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901147C3-BFC6-D946-AF66-F73BC1496DCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="460" windowWidth="27220" windowHeight="10560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1300" yWindow="460" windowWidth="25720" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eyeTrackingParams" sheetId="1" r:id="rId1"/>
@@ -4542,10 +4542,10 @@
   <dimension ref="A1:AQ979"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="AG237" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="AK958" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AJ244" sqref="AJ244"/>
+      <selection pane="bottomRight" activeCell="AN977" sqref="AN977"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -36953,7 +36953,7 @@
         <v>1071</v>
       </c>
       <c r="AN968" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AO968" t="s">
         <v>1051</v>
@@ -37006,7 +37006,7 @@
         <v>1071</v>
       </c>
       <c r="AN969" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AO969" t="s">
         <v>1051</v>
@@ -37071,7 +37071,7 @@
       <c r="AL970" s="4"/>
       <c r="AM970" s="4"/>
       <c r="AN970" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AO970" t="s">
         <v>1051</v>
@@ -37124,7 +37124,7 @@
         <v>1071</v>
       </c>
       <c r="AN971" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AO971" t="s">
         <v>1051</v>
@@ -37177,7 +37177,7 @@
         <v>1071</v>
       </c>
       <c r="AN972" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AO972" t="s">
         <v>1051</v>
@@ -37230,7 +37230,7 @@
         <v>1071</v>
       </c>
       <c r="AN973" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AO973" t="s">
         <v>1051</v>
@@ -37286,7 +37286,7 @@
         <v>1302</v>
       </c>
       <c r="AN974" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AO974" t="s">
         <v>1051</v>
@@ -37342,7 +37342,7 @@
         <v>1303</v>
       </c>
       <c r="AN975" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AO975" t="s">
         <v>1051</v>
@@ -37395,7 +37395,7 @@
         <v>1071</v>
       </c>
       <c r="AN976" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AO976" t="s">
         <v>1051</v>
@@ -37451,7 +37451,7 @@
         <v>1071</v>
       </c>
       <c r="AN977" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AO977" t="s">
         <v>1051</v>
